--- a/xlsx/美国行政区划_intext.xlsx
+++ b/xlsx/美国行政区划_intext.xlsx
@@ -15,23 +15,26 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="760">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="750">
   <si>
     <t>美国行政区划</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A1%8C%E6%94%BF%E5%8D%80%E5%8A%83</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92</t>
   </si>
   <si>
+    <t>政策_政策_美国_美国行政区划</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%B7%9E%E4%BB%BD</t>
   </si>
   <si>
     <t>美国州份</t>
   </si>
   <si>
-    <t>政策_政策_美國_美国行政区划</t>
-  </si>
-  <si>
     <t>https://en.wikipedia.org/wiki/Commonwealth_(U.S._state)</t>
   </si>
   <si>
@@ -41,7 +44,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%9B%9B%E9%A0%93%E5%93%A5%E5%80%AB%E6%AF%94%E4%BA%9E%E7%89%B9%E5%8D%80</t>
   </si>
   <si>
-    <t>華盛頓哥倫比亞特區</t>
+    <t>华盛顿哥伦比亚特区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%A2%86%E5%9C%B0</t>
@@ -125,7 +128,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8C%89%E4%BA%BA%E5%8F%A3%E6%8E%92%E5%88%97%E7%9A%84%E7%BE%8E%E5%9C%8B%E5%9F%8E%E5%B8%82%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>按人口排列的美國城市列表</t>
+    <t>按人口排列的美国城市列表</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/List_of_towns_in_the_United_States</t>
@@ -143,7 +146,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%8E%AE%E5%8D%80_(%E7%BE%8E%E5%9C%8B)</t>
   </si>
   <si>
-    <t>鎮區 (美國)</t>
+    <t>镇区 (美国)</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Consolidated_city-township</t>
@@ -203,7 +206,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E7%B4%80%E5%BF%B5%E5%8D%80</t>
   </si>
   <si>
-    <t>國家紀念區</t>
+    <t>国家纪念区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%85%AC%E5%9B%AD%E5%88%97%E8%A1%A8</t>
@@ -221,7 +224,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%AF%93%E5%A4%A7%E5%BB%88%E7%AE%A1%E7%90%86%E5%A7%94%E5%93%A1%E6%9C%83</t>
   </si>
   <si>
-    <t>公寓大廈管理委員會</t>
+    <t>公寓大厦管理委员会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E8%81%94%E5%90%88%E5%8D%8F%E5%AE%9A</t>
@@ -239,7 +242,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E5%BB%BA%E5%88%B6%E5%9C%B0%E5%8D%80</t>
   </si>
   <si>
-    <t>非建制地區</t>
+    <t>非建制地区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AC%BC%E9%95%87</t>
@@ -257,13 +260,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%84%89</t>
   </si>
   <si>
-    <t>鄉</t>
+    <t>乡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%8E%AE</t>
   </si>
   <si>
-    <t>鎮</t>
+    <t>镇</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%91</t>
@@ -287,13 +290,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%9C%BE%E8%AD%B0%E9%99%A2</t>
   </si>
   <si>
-    <t>美國眾議院</t>
+    <t>美国众议院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%8F%83%E8%AD%B0%E9%99%A2</t>
   </si>
   <si>
-    <t>美國參議院</t>
+    <t>美国参议院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%80%89%E4%B8%BE%E4%BA%BA%E5%9B%A2</t>
@@ -311,7 +314,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A7%90%E5%A4%96%E7%BE%8E%E8%BB%8D</t>
   </si>
   <si>
-    <t>駐外美軍</t>
+    <t>驻外美军</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%A6%E5%8C%BA</t>
@@ -323,37 +326,37 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E9%82%A6%E5%88%B6</t>
   </si>
   <si>
-    <t>聯邦制</t>
+    <t>联邦制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%BB%E6%AC%8A</t>
   </si>
   <si>
-    <t>主權</t>
+    <t>主权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%9C%80%E9%AB%98%E6%B3%95%E9%99%A2</t>
   </si>
   <si>
-    <t>美國最高法院</t>
+    <t>美国最高法院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%86%B2%E6%B3%95</t>
   </si>
   <si>
-    <t>美國憲法</t>
+    <t>美国宪法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B8%A3</t>
   </si>
   <si>
-    <t>縣</t>
+    <t>县</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%A5%BF%E6%A0%B9%E5%B7%9E</t>
@@ -365,43 +368,43 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%90%89%E5%B0%BC%E4%BA%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>維吉尼亞州</t>
+    <t>维吉尼亚州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%8E%E5%B8%82%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>城市國家</t>
+    <t>城市国家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%8C%97%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>南北戰爭</t>
+    <t>南北战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%B6%AD%E5%90%89%E5%B0%BC%E4%BA%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>西維吉尼亞州</t>
+    <t>西维吉尼亚州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%85%A7%E6%94%BF%E9%83%A8</t>
   </si>
   <si>
-    <t>美國內政部</t>
+    <t>美国内政部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B3%B6%E5%B6%BC%E5%9C%B0%E5%8D%80</t>
   </si>
   <si>
-    <t>島嶼地區</t>
+    <t>岛屿地区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E7%AC%AC%E5%AE%89%E4%BA%8B%E5%8B%99%E5%B1%80</t>
   </si>
   <si>
-    <t>印第安事務局</t>
+    <t>印第安事务局</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Office_of_Insular_Affairs</t>
@@ -413,19 +416,16 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%B7%9E%E4%BB%BD</t>
   </si>
   <si>
-    <t>美國州份</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%B7%9E%E4%BB%BD%E4%BE%9D%E5%8A%A0%E5%85%A5%E8%81%AF%E9%82%A6%E9%A0%86%E5%BA%8F%E6%8E%92%E5%88%97%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>美國州份依加入聯邦順序排列列表</t>
+    <t>美国州份依加入联邦顺序排列列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%A0%98%E5%9C%9F%E8%AE%8A%E9%81%B7</t>
   </si>
   <si>
-    <t>美國領土變遷</t>
+    <t>美国领土变迁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8E%86%E5%8F%B2</t>
@@ -443,7 +443,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%89%8D%E5%93%A5%E5%80%AB%E5%B8%83%E6%99%82%E6%9C%9F</t>
   </si>
   <si>
-    <t>前哥倫布時期</t>
+    <t>前哥伦布时期</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%8B%AC%E7%AB%8B%E5%AE%A3%E8%A8%80</t>
@@ -503,7 +503,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E6%96%AF%E7%81%A3%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>波斯灣戰爭</t>
+    <t>波斯湾战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E6%81%90%E6%88%98%E4%BA%89</t>
@@ -515,7 +515,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E8%9E%8D%E6%B5%B7%E5%98%AF</t>
   </si>
   <si>
-    <t>金融海嘯</t>
+    <t>金融海啸</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BA%BA%E5%8F%A3</t>
@@ -545,7 +545,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%83%B5%E6%94%BF%E7%BD%B2</t>
   </si>
   <si>
-    <t>美國郵政署</t>
+    <t>美国邮政署</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%A7%91%E5%AD%A6%E6%8A%80%E6%9C%AF</t>
@@ -569,9 +569,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AE%AA%E6%B3%95</t>
   </si>
   <si>
-    <t>美国宪法</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%9D%83%E5%88%A9%E6%B3%95%E6%A1%88</t>
   </si>
   <si>
@@ -581,7 +578,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%8A%9B%E5%88%86%E7%AB%8B</t>
   </si>
   <si>
-    <t>權力分立</t>
+    <t>权力分立</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E6%B3%95%E6%9C%BA%E6%9E%84</t>
@@ -599,15 +596,9 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BC%97%E8%AE%AE%E9%99%A2</t>
   </si>
   <si>
-    <t>美国众议院</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8F%82%E8%AE%AE%E9%99%A2</t>
   </si>
   <si>
-    <t>美国参议院</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%89%AF%E6%80%BB%E7%BB%9F</t>
   </si>
   <si>
@@ -617,7 +608,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%81%AF%E9%82%A6%E6%A9%9F%E6%A7%8B%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>美國聯邦機構列表</t>
+    <t>美国联邦机构列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%80%BB%E7%BB%9F</t>
@@ -647,15 +638,12 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%94%BF%E5%BA%9C%E7%8D%A8%E7%AB%8B%E6%A9%9F%E6%A7%8B</t>
   </si>
   <si>
-    <t>美國政府獨立機構</t>
+    <t>美国政府独立机构</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%9C%80%E9%AB%98%E6%B3%95%E9%99%A2</t>
   </si>
   <si>
-    <t>美国最高法院</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E6%B3%95%E9%99%A2</t>
   </si>
   <si>
@@ -689,13 +677,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%83%85%E5%A0%B1%E9%AB%94%E7%B3%BB</t>
   </si>
   <si>
-    <t>美國情報體系</t>
+    <t>美国情报体系</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E6%83%85%E5%A0%B1%E7%B8%BD%E7%9B%A3</t>
   </si>
   <si>
-    <t>國家情報總監</t>
+    <t>国家情报总监</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E6%83%85%E6%8A%A5%E5%B1%80</t>
@@ -707,13 +695,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%98%B2%E6%83%85%E5%A0%B1%E5%B1%80</t>
   </si>
   <si>
-    <t>國防情報局</t>
+    <t>国防情报局</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%AE%B6%E5%9C%B0%E7%90%86%E7%A9%BA%E9%96%93%E6%83%85%E5%A0%B1%E5%B1%80</t>
   </si>
   <si>
-    <t>美國國家地理空間情報局</t>
+    <t>美国国家地理空间情报局</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E5%AE%B6%E4%BE%A6%E5%AF%9F%E5%B1%80</t>
@@ -761,7 +749,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E6%B0%91%E8%AD%A6%E8%A1%9B%E9%9A%8A</t>
   </si>
   <si>
-    <t>美國國民警衛隊</t>
+    <t>美国国民警卫队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%94%BF%E6%B2%BB</t>
@@ -773,7 +761,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%81%B8%E8%88%89</t>
   </si>
   <si>
-    <t>美國選舉</t>
+    <t>美国选举</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%94%BF%E5%85%9A</t>
@@ -803,7 +791,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%AC%AC51%E5%B7%9E</t>
   </si>
   <si>
-    <t>美國第51州</t>
+    <t>美国第51州</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Political_status_of_Puerto_Rico</t>
@@ -815,7 +803,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%85%E5%B7%9E%E8%88%87%E8%97%8D%E5%B7%9E</t>
   </si>
   <si>
-    <t>紅州與藍州</t>
+    <t>红州与蓝州</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Purple_America</t>
@@ -845,19 +833,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E7%A3%AF%E5%B1%B1%E8%84%88</t>
   </si>
   <si>
-    <t>洛磯山脈</t>
+    <t>洛矶山脉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%B0%E5%8D%80</t>
   </si>
   <si>
-    <t>美國地區</t>
+    <t>美国地区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%8B%B1%E6%A0%BC%E8%98%AD</t>
   </si>
   <si>
-    <t>新英格蘭</t>
+    <t>新英格兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%A7%E8%A5%BF%E6%B4%8B%E5%9C%B0%E5%8C%BA</t>
@@ -869,13 +857,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%8D%97%E9%83%A8</t>
   </si>
   <si>
-    <t>美國南部</t>
+    <t>美国南部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%B8%AD%E8%A5%BF%E9%83%A8</t>
   </si>
   <si>
-    <t>美國中西部</t>
+    <t>美国中西部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BE%8E%E5%A4%A7%E5%B9%B3%E5%8E%9F</t>
@@ -887,13 +875,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A5%BF%E5%8C%97%E9%83%A8</t>
   </si>
   <si>
-    <t>美國西北部</t>
+    <t>美国西北部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A5%BF%E5%8D%97%E9%83%A8</t>
   </si>
   <si>
-    <t>美國西南部</t>
+    <t>美国西南部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B2%B3%E6%B5%81%E5%88%97%E8%A1%A8</t>
@@ -935,7 +923,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%A4%A2</t>
   </si>
   <si>
-    <t>美國夢</t>
+    <t>美国梦</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/United_States_federal_budget</t>
@@ -947,13 +935,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E9%82%A6%E5%84%B2%E5%82%99%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>聯邦儲備系統</t>
+    <t>联邦储备系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%9A%84%E5%B7%A5%E6%9C%83</t>
   </si>
   <si>
-    <t>美國的工會</t>
+    <t>美国的工会</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Social_programs_in_the_United_States</t>
@@ -965,7 +953,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%82%B5</t>
   </si>
   <si>
-    <t>美國國債</t>
+    <t>美国国债</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Taxation_in_the_United_States</t>
@@ -977,7 +965,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%BA%A4%E9%80%9A</t>
   </si>
   <si>
-    <t>美國交通</t>
+    <t>美国交通</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%9C%BA%E5%9C%BA%E5%88%97%E8%A1%A8</t>
@@ -989,13 +977,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E9%81%93</t>
   </si>
   <si>
-    <t>美國國道</t>
+    <t>美国国道</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%9E%E9%9A%9B%E5%85%AC%E8%B7%AF%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>州際公路系統</t>
+    <t>州际公路系统</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Unemployment_in_the_United_States</t>
@@ -1019,7 +1007,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%A4%BE%E6%9C%83</t>
   </si>
   <si>
-    <t>美國社會</t>
+    <t>美国社会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%8A%AF%E7%BD%AA</t>
@@ -1091,15 +1079,12 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%A4%BE%E6%9C%83%E9%9A%8E%E5%B1%A4</t>
   </si>
   <si>
-    <t>美國社會階層</t>
+    <t>美国社会阶层</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%A2%A6</t>
   </si>
   <si>
-    <t>美国梦</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BD%93%E8%82%B2</t>
   </si>
   <si>
@@ -1109,7 +1094,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8BLGBT%E6%AC%8A%E7%9B%8A</t>
   </si>
   <si>
-    <t>美國LGBT權益</t>
+    <t>美国LGBT权益</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%8C%E6%80%A7%E5%A9%9A%E5%A7%BB</t>
@@ -1163,7 +1148,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%A3%B2%E9%A3%9F%E6%96%87%E5%8C%96</t>
   </si>
   <si>
-    <t>美國飲食文化</t>
+    <t>美国饮食文化</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E6%97%97</t>
@@ -1199,7 +1184,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%9B%BB%E8%A6%96</t>
   </si>
   <si>
-    <t>美國電視</t>
+    <t>美国电视</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%94%B5%E5%BD%B1</t>
@@ -1217,7 +1202,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8A%BD%E8%B1%A1%E8%A1%A8%E7%8F%BE%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>抽象表現主義</t>
+    <t>抽象表现主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%A4%BE%E4%BC%9A%E9%97%AE%E9%A2%98</t>
@@ -1253,19 +1238,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%A7%8D%E6%94%AF%E6%94%BF%E6%B2%BB</t>
   </si>
   <si>
-    <t>美國槍支政治</t>
+    <t>美国枪支政治</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%A7%8D%E6%9E%9D%E6%9A%B4%E5%8A%9B%E5%95%8F%E9%A1%8C</t>
   </si>
   <si>
-    <t>美國槍枝暴力問題</t>
+    <t>美国枪枝暴力问题</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%86%AB%E7%99%82%E6%94%B9%E9%9D%A9</t>
   </si>
   <si>
-    <t>美國醫療改革</t>
+    <t>美国医疗改革</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BA%BA%E6%9D%83</t>
@@ -1277,7 +1262,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%A2%A8%E9%82%8A%E7%95%8C</t>
   </si>
   <si>
-    <t>美墨邊界</t>
+    <t>美墨边界</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%9A%84%E8%82%A5%E8%83%96%E9%97%AE%E9%A2%98</t>
@@ -1307,7 +1292,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E5%88%A9%E6%A1%91%E9%82%A3%E5%B7%9E</t>
   </si>
   <si>
-    <t>亞利桑那州</t>
+    <t>亚利桑那州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E8%82%AF%E8%89%B2%E5%B7%9E</t>
@@ -1325,7 +1310,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BE%85%E6%8B%89%E5%A4%9A%E5%B7%9E</t>
   </si>
   <si>
-    <t>科羅拉多州</t>
+    <t>科罗拉多州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%B7%E4%B9%83%E7%8B%84%E5%85%8B%E5%B7%9E</t>
@@ -1349,7 +1334,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%E4%BA%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>喬治亞州</t>
+    <t>乔治亚州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E5%A8%81%E5%A4%B7%E5%B7%9E</t>
@@ -1385,7 +1370,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A0%AA%E8%96%A9%E6%96%AF%E5%B7%9E</t>
   </si>
   <si>
-    <t>堪薩斯州</t>
+    <t>堪萨斯州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%82%AF%E5%A1%94%E5%9F%BA%E5%B7%9E</t>
@@ -1415,7 +1400,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BA%BB%E8%96%A9%E8%AB%B8%E5%A1%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>麻薩諸塞州</t>
+    <t>麻萨诸塞州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E6%AD%87%E6%A0%B9%E5%B7%9E</t>
@@ -1427,7 +1412,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%98%8E%E5%B0%BC%E8%98%87%E9%81%94%E5%B7%9E</t>
   </si>
   <si>
-    <t>明尼蘇達州</t>
+    <t>明尼苏达州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%A5%BF%E8%A5%BF%E6%AF%94%E5%B7%9E</t>
@@ -1439,7 +1424,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%98%87%E9%87%8C%E5%B7%9E</t>
   </si>
   <si>
-    <t>密蘇里州</t>
+    <t>密苏里州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E5%A4%A7%E6%8B%BF%E5%B7%9E</t>
@@ -1451,7 +1436,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E5%B8%83%E6%8B%89%E6%96%AF%E5%8A%A0%E5%B7%9E</t>
   </si>
   <si>
-    <t>內布拉斯加州</t>
+    <t>内布拉斯加州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%85%E5%8D%8E%E8%BE%BE%E5%B7%9E</t>
@@ -1505,7 +1490,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%85%8B%E6%8B%89%E8%8D%B7%E9%A6%AC%E5%B7%9E</t>
   </si>
   <si>
-    <t>奧克拉荷馬州</t>
+    <t>奥克拉荷马州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E5%8B%92%E5%86%88%E5%B7%9E</t>
@@ -1523,7 +1508,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E5%BE%B7%E5%B3%B6%E5%B7%9E</t>
   </si>
   <si>
-    <t>羅德島州</t>
+    <t>罗德岛州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%8D%A1%E7%BD%97%E6%9D%A5%E7%BA%B3%E5%B7%9E</t>
@@ -1589,25 +1574,22 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E9%82%A6%E5%9C%B0%E5%8D%80</t>
   </si>
   <si>
-    <t>聯邦地區</t>
+    <t>联邦地区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%93%A5%E4%BC%A6%E6%AF%94%E4%BA%9A%E7%89%B9%E5%8C%BA</t>
   </si>
   <si>
-    <t>华盛顿哥伦比亚特区</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B1%AC%E8%96%A9%E6%91%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>美屬薩摩亞</t>
+    <t>美属萨摩亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%97%9C%E5%B3%B6</t>
   </si>
   <si>
-    <t>關島</t>
+    <t>关岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E9%A9%AC%E9%87%8C%E4%BA%9A%E7%BA%B3%E7%BE%A4%E5%B2%9B</t>
@@ -1625,7 +1607,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B1%AC%E7%B6%AD%E7%88%BE%E4%BA%AC%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>美屬維爾京群島</t>
+    <t>美属维尔京群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%9C%AC%E5%9C%9F%E5%A4%96%E5%B0%8F%E5%B2%9B%E5%B1%BF</t>
@@ -1637,7 +1619,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%85%8B%E5%B3%B6</t>
   </si>
   <si>
-    <t>威克島</t>
+    <t>威克岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%E6%96%AF%E9%A1%BF%E7%8E%AF%E7%A4%81</t>
@@ -1649,7 +1631,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%80%94%E5%B3%B6</t>
   </si>
   <si>
-    <t>中途島</t>
+    <t>中途岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E6%9B%BC%E7%A4%81</t>
@@ -1661,25 +1643,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%95%E9%82%81%E6%8B%89%E7%92%B0%E7%A4%81</t>
   </si>
   <si>
-    <t>帕邁拉環礁</t>
+    <t>帕迈拉环礁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%88%E7%B6%AD%E6%96%AF%E5%B3%B6</t>
   </si>
   <si>
-    <t>賈維斯島</t>
+    <t>贾维斯岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%9D%E5%85%8B%E5%B3%B6</t>
   </si>
   <si>
-    <t>貝克島</t>
+    <t>贝克岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B1%AA%E8%98%AD%E5%B3%B6</t>
   </si>
   <si>
-    <t>豪蘭島</t>
+    <t>豪兰岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%B3%E7%93%A6%E8%90%A8%E5%B2%9B</t>
@@ -1721,7 +1703,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E%E8%A1%8C%E6%94%BF%E5%8D%80%E5%8A%83</t>
   </si>
   <si>
-    <t>加利福尼亞州行政區劃</t>
+    <t>加利福尼亚州行政区划</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BD%97%E6%8B%89%E5%A4%9A%E5%B7%9E%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92</t>
@@ -1793,7 +1775,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%82%AF%E5%A1%94%E5%9F%BA%E5%B7%9E%E8%A1%8C%E6%94%BF%E5%8D%80%E5%8A%83</t>
   </si>
   <si>
-    <t>肯塔基州行政區劃</t>
+    <t>肯塔基州行政区划</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BC%85%E5%9B%A0%E5%B7%9E%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92</t>
@@ -1937,25 +1919,22 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD</t>
   </si>
   <si>
-    <t>美国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%B7%9E%E4%BB%BD%E5%92%8C%E9%A0%98%E5%9C%B0%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>美國州份和領地列表</t>
+    <t>美国州份和领地列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BE%9D%E7%B8%BD%E9%9D%A2%E7%A9%8D%E6%8E%92%E5%88%97%E7%9A%84%E7%BE%8E%E5%9C%8B%E5%B7%9E%E5%88%A5%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>依總面積排列的美國州別列表</t>
+    <t>依总面积排列的美国州别列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%90%84%E5%B7%9E%E9%A6%96%E5%BA%9C%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>美國各州首府列表</t>
+    <t>美国各州首府列表</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/List_of_governors%27_residences_in_the_United_States</t>
@@ -1967,19 +1946,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%90%84%E5%B7%9E%E5%B7%9E%E8%AD%B0%E6%9C%83%E5%A4%A7%E5%BB%88%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>美國各州州議會大廈列表</t>
+    <t>美国各州州议会大厦列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%90%84%E5%B7%9E%E6%9C%80%E5%A4%A7%E5%9F%8E%E5%B8%82%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>美國各州最大城市列表</t>
+    <t>美国各州最大城市列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%90%84%E5%B7%9E%E5%90%8D%E7%A8%B1%E8%A9%9E%E6%BA%90</t>
   </si>
   <si>
-    <t>美國各州名稱詞源</t>
+    <t>美国各州名称词源</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%84%E5%B7%9E%E5%9B%BD%E5%86%85%E7%94%9F%E4%BA%A7%E6%80%BB%E5%80%BC%E5%88%97%E8%A1%A8</t>
@@ -1991,37 +1970,37 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%90%84%E5%B7%9E%E4%BA%BA%E5%9D%87%E7%94%9F%E7%94%A2%E7%B8%BD%E9%A1%8D%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>美國各州人均生產總額列表</t>
+    <t>美国各州人均生产总额列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%90%84%E5%B7%9E%E4%BA%BA%E5%8F%A3%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>美國各州人口列表</t>
+    <t>美国各州人口列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%B7%9E%E4%BB%BD%E4%BA%BA%E5%8F%A3%E5%AF%86%E5%BA%A6%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>美國州份人口密度列表</t>
+    <t>美国州份人口密度列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%B7%9E%E4%BB%BD%E9%83%B5%E6%94%BF%E7%B8%AE%E5%AF%AB%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>美國州份郵政縮寫列表</t>
+    <t>美国州份邮政缩写列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%90%84%E5%B7%9E%E6%99%82%E5%8D%80%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>美國各州時區列表</t>
+    <t>美国各州时区列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%90%84%E5%B7%9E%E7%B8%AE%E5%AF%AB%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>美國各州縮寫列表</t>
+    <t>美国各州缩写列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%84%E5%B7%9E%E6%98%B5%E7%A7%B0%E5%88%97%E8%A1%A8</t>
@@ -2045,13 +2024,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B</t>
   </si>
   <si>
-    <t>聯合國</t>
+    <t>联合国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E6%9C%83%E5%93%A1%E5%9C%8B%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>聯合國會員國列表</t>
+    <t>联合国会员国列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%A0%B9%E5%BB%B7%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92</t>
@@ -2063,7 +2042,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%9C%B0%E5%8D%A1%E5%8F%8A%E5%B7%B4%E5%B8%83%E9%81%94%E8%A1%8C%E6%94%BF%E5%8D%80%E5%8A%83</t>
   </si>
   <si>
-    <t>安地卡及巴布達行政區劃</t>
+    <t>安地卡及巴布达行政区划</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%B7%B4%E5%A4%9A%E6%96%AF%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92</t>
@@ -2189,7 +2168,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E5%8A%A0%E6%8B%89%E7%93%9C%E8%A1%8C%E6%94%BF%E5%8D%80%E5%8A%83</t>
   </si>
   <si>
-    <t>尼加拉瓜行政區劃</t>
+    <t>尼加拉瓜行政区划</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%90%A8%E5%B0%94%E7%93%A6%E5%A4%9A%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92</t>
@@ -2286,15 +2265,6 @@
   </si>
   <si>
     <t>圣皮埃尔和密克隆行政区划</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A1%8C%E6%94%BF%E5%8D%80%E5%8A%83</t>
-  </si>
-  <si>
-    <t>浏览条目正文[c]</t>
-  </si>
-  <si>
-    <t>阅读</t>
   </si>
 </sst>
 </file>
@@ -2694,13 +2664,13 @@
         <v>2</v>
       </c>
       <c r="F2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>102</v>
+        <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I2" t="n">
         <v>3</v>
@@ -2720,16 +2690,16 @@
         <v>2</v>
       </c>
       <c r="E3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" t="s">
         <v>5</v>
       </c>
-      <c r="F3" t="s">
-        <v>6</v>
-      </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>102</v>
       </c>
       <c r="H3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I3" t="n">
         <v>3</v>
@@ -2749,16 +2719,16 @@
         <v>3</v>
       </c>
       <c r="E4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" t="s">
         <v>7</v>
       </c>
-      <c r="F4" t="s">
-        <v>8</v>
-      </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I4" t="n">
         <v>3</v>
@@ -2778,16 +2748,16 @@
         <v>4</v>
       </c>
       <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" t="s">
         <v>9</v>
       </c>
-      <c r="F5" t="s">
-        <v>10</v>
-      </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I5" t="n">
         <v>3</v>
@@ -2807,16 +2777,16 @@
         <v>5</v>
       </c>
       <c r="E6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="F6" t="s">
-        <v>12</v>
-      </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I6" t="n">
         <v>3</v>
@@ -2836,16 +2806,16 @@
         <v>6</v>
       </c>
       <c r="E7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" t="s">
         <v>13</v>
       </c>
-      <c r="F7" t="s">
-        <v>14</v>
-      </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I7" t="n">
         <v>3</v>
@@ -2865,16 +2835,16 @@
         <v>7</v>
       </c>
       <c r="E8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" t="s">
         <v>15</v>
       </c>
-      <c r="F8" t="s">
-        <v>16</v>
-      </c>
       <c r="G8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I8" t="n">
         <v>3</v>
@@ -2894,16 +2864,16 @@
         <v>8</v>
       </c>
       <c r="E9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" t="s">
         <v>17</v>
       </c>
-      <c r="F9" t="s">
-        <v>18</v>
-      </c>
       <c r="G9" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I9" t="n">
         <v>3</v>
@@ -2923,16 +2893,16 @@
         <v>9</v>
       </c>
       <c r="E10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" t="s">
         <v>19</v>
       </c>
-      <c r="F10" t="s">
-        <v>20</v>
-      </c>
       <c r="G10" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I10" t="n">
         <v>3</v>
@@ -2952,16 +2922,16 @@
         <v>10</v>
       </c>
       <c r="E11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" t="s">
         <v>21</v>
       </c>
-      <c r="F11" t="s">
-        <v>22</v>
-      </c>
       <c r="G11" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I11" t="n">
         <v>3</v>
@@ -2981,16 +2951,16 @@
         <v>11</v>
       </c>
       <c r="E12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" t="s">
         <v>23</v>
       </c>
-      <c r="F12" t="s">
-        <v>24</v>
-      </c>
       <c r="G12" t="n">
         <v>1</v>
       </c>
       <c r="H12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I12" t="n">
         <v>3</v>
@@ -3010,16 +2980,16 @@
         <v>12</v>
       </c>
       <c r="E13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" t="s">
         <v>25</v>
       </c>
-      <c r="F13" t="s">
-        <v>26</v>
-      </c>
       <c r="G13" t="n">
         <v>1</v>
       </c>
       <c r="H13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I13" t="n">
         <v>3</v>
@@ -3039,16 +3009,16 @@
         <v>13</v>
       </c>
       <c r="E14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" t="s">
         <v>27</v>
       </c>
-      <c r="F14" t="s">
-        <v>28</v>
-      </c>
       <c r="G14" t="n">
         <v>1</v>
       </c>
       <c r="H14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I14" t="n">
         <v>3</v>
@@ -3068,16 +3038,16 @@
         <v>14</v>
       </c>
       <c r="E15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" t="s">
         <v>29</v>
       </c>
-      <c r="F15" t="s">
-        <v>30</v>
-      </c>
       <c r="G15" t="n">
         <v>1</v>
       </c>
       <c r="H15" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I15" t="n">
         <v>3</v>
@@ -3097,16 +3067,16 @@
         <v>15</v>
       </c>
       <c r="E16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" t="s">
         <v>31</v>
       </c>
-      <c r="F16" t="s">
-        <v>32</v>
-      </c>
       <c r="G16" t="n">
         <v>1</v>
       </c>
       <c r="H16" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I16" t="n">
         <v>3</v>
@@ -3126,16 +3096,16 @@
         <v>16</v>
       </c>
       <c r="E17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" t="s">
         <v>33</v>
       </c>
-      <c r="F17" t="s">
-        <v>34</v>
-      </c>
       <c r="G17" t="n">
         <v>1</v>
       </c>
       <c r="H17" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I17" t="n">
         <v>3</v>
@@ -3155,16 +3125,16 @@
         <v>17</v>
       </c>
       <c r="E18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" t="s">
         <v>35</v>
       </c>
-      <c r="F18" t="s">
-        <v>36</v>
-      </c>
       <c r="G18" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="H18" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I18" t="n">
         <v>3</v>
@@ -3184,16 +3154,16 @@
         <v>18</v>
       </c>
       <c r="E19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" t="s">
         <v>37</v>
       </c>
-      <c r="F19" t="s">
-        <v>38</v>
-      </c>
       <c r="G19" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="H19" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I19" t="n">
         <v>3</v>
@@ -3213,16 +3183,16 @@
         <v>19</v>
       </c>
       <c r="E20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" t="s">
         <v>39</v>
       </c>
-      <c r="F20" t="s">
-        <v>40</v>
-      </c>
       <c r="G20" t="n">
         <v>1</v>
       </c>
       <c r="H20" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I20" t="n">
         <v>3</v>
@@ -3242,16 +3212,16 @@
         <v>20</v>
       </c>
       <c r="E21" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" t="s">
         <v>41</v>
       </c>
-      <c r="F21" t="s">
-        <v>42</v>
-      </c>
       <c r="G21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H21" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I21" t="n">
         <v>3</v>
@@ -3271,16 +3241,16 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" t="s">
         <v>43</v>
       </c>
-      <c r="F22" t="s">
-        <v>44</v>
-      </c>
       <c r="G22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H22" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I22" t="n">
         <v>3</v>
@@ -3300,16 +3270,16 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
         <v>45</v>
       </c>
-      <c r="F23" t="s">
-        <v>46</v>
-      </c>
       <c r="G23" t="n">
         <v>1</v>
       </c>
       <c r="H23" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I23" t="n">
         <v>3</v>
@@ -3329,16 +3299,16 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" t="s">
         <v>47</v>
       </c>
-      <c r="F24" t="s">
-        <v>48</v>
-      </c>
       <c r="G24" t="n">
         <v>1</v>
       </c>
       <c r="H24" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I24" t="n">
         <v>3</v>
@@ -3358,16 +3328,16 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" t="s">
         <v>49</v>
       </c>
-      <c r="F25" t="s">
-        <v>50</v>
-      </c>
       <c r="G25" t="n">
         <v>1</v>
       </c>
       <c r="H25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I25" t="n">
         <v>3</v>
@@ -3387,16 +3357,16 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26" t="s">
         <v>51</v>
       </c>
-      <c r="F26" t="s">
-        <v>52</v>
-      </c>
       <c r="G26" t="n">
         <v>1</v>
       </c>
       <c r="H26" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I26" t="n">
         <v>3</v>
@@ -3416,16 +3386,16 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" t="s">
         <v>53</v>
       </c>
-      <c r="F27" t="s">
-        <v>54</v>
-      </c>
       <c r="G27" t="n">
         <v>1</v>
       </c>
       <c r="H27" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I27" t="n">
         <v>3</v>
@@ -3445,16 +3415,16 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28" t="s">
         <v>55</v>
       </c>
-      <c r="F28" t="s">
-        <v>56</v>
-      </c>
       <c r="G28" t="n">
         <v>1</v>
       </c>
       <c r="H28" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I28" t="n">
         <v>3</v>
@@ -3474,16 +3444,16 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" t="s">
         <v>57</v>
       </c>
-      <c r="F29" t="s">
-        <v>58</v>
-      </c>
       <c r="G29" t="n">
         <v>1</v>
       </c>
       <c r="H29" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I29" t="n">
         <v>3</v>
@@ -3503,16 +3473,16 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F30" t="s">
         <v>59</v>
       </c>
-      <c r="F30" t="s">
-        <v>60</v>
-      </c>
       <c r="G30" t="n">
         <v>1</v>
       </c>
       <c r="H30" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I30" t="n">
         <v>3</v>
@@ -3532,16 +3502,16 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
+        <v>60</v>
+      </c>
+      <c r="F31" t="s">
         <v>61</v>
       </c>
-      <c r="F31" t="s">
-        <v>62</v>
-      </c>
       <c r="G31" t="n">
         <v>1</v>
       </c>
       <c r="H31" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I31" t="n">
         <v>3</v>
@@ -3561,16 +3531,16 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
+        <v>62</v>
+      </c>
+      <c r="F32" t="s">
         <v>63</v>
       </c>
-      <c r="F32" t="s">
-        <v>64</v>
-      </c>
       <c r="G32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H32" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I32" t="n">
         <v>3</v>
@@ -3590,16 +3560,16 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
+        <v>64</v>
+      </c>
+      <c r="F33" t="s">
         <v>65</v>
       </c>
-      <c r="F33" t="s">
-        <v>66</v>
-      </c>
       <c r="G33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H33" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I33" t="n">
         <v>3</v>
@@ -3619,16 +3589,16 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
+        <v>66</v>
+      </c>
+      <c r="F34" t="s">
         <v>67</v>
       </c>
-      <c r="F34" t="s">
-        <v>68</v>
-      </c>
       <c r="G34" t="n">
         <v>1</v>
       </c>
       <c r="H34" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I34" t="n">
         <v>3</v>
@@ -3648,16 +3618,16 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>68</v>
+      </c>
+      <c r="F35" t="s">
         <v>69</v>
       </c>
-      <c r="F35" t="s">
-        <v>70</v>
-      </c>
       <c r="G35" t="n">
         <v>1</v>
       </c>
       <c r="H35" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I35" t="n">
         <v>3</v>
@@ -3677,16 +3647,16 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>70</v>
+      </c>
+      <c r="F36" t="s">
         <v>71</v>
       </c>
-      <c r="F36" t="s">
-        <v>72</v>
-      </c>
       <c r="G36" t="n">
         <v>1</v>
       </c>
       <c r="H36" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I36" t="n">
         <v>3</v>
@@ -3706,16 +3676,16 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>72</v>
+      </c>
+      <c r="F37" t="s">
         <v>73</v>
       </c>
-      <c r="F37" t="s">
-        <v>74</v>
-      </c>
       <c r="G37" t="n">
         <v>1</v>
       </c>
       <c r="H37" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I37" t="n">
         <v>3</v>
@@ -3735,16 +3705,16 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>74</v>
+      </c>
+      <c r="F38" t="s">
         <v>75</v>
       </c>
-      <c r="F38" t="s">
-        <v>76</v>
-      </c>
       <c r="G38" t="n">
         <v>1</v>
       </c>
       <c r="H38" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I38" t="n">
         <v>3</v>
@@ -3764,16 +3734,16 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
+        <v>76</v>
+      </c>
+      <c r="F39" t="s">
         <v>77</v>
       </c>
-      <c r="F39" t="s">
-        <v>78</v>
-      </c>
       <c r="G39" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H39" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I39" t="n">
         <v>3</v>
@@ -3793,16 +3763,16 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>78</v>
+      </c>
+      <c r="F40" t="s">
         <v>79</v>
       </c>
-      <c r="F40" t="s">
-        <v>80</v>
-      </c>
       <c r="G40" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H40" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I40" t="n">
         <v>3</v>
@@ -3822,16 +3792,16 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>80</v>
+      </c>
+      <c r="F41" t="s">
         <v>81</v>
       </c>
-      <c r="F41" t="s">
-        <v>82</v>
-      </c>
       <c r="G41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H41" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I41" t="n">
         <v>3</v>
@@ -3851,16 +3821,16 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>82</v>
+      </c>
+      <c r="F42" t="s">
         <v>83</v>
       </c>
-      <c r="F42" t="s">
-        <v>84</v>
-      </c>
       <c r="G42" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H42" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I42" t="n">
         <v>3</v>
@@ -3880,16 +3850,16 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>84</v>
+      </c>
+      <c r="F43" t="s">
         <v>85</v>
       </c>
-      <c r="F43" t="s">
-        <v>86</v>
-      </c>
       <c r="G43" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H43" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I43" t="n">
         <v>3</v>
@@ -3909,16 +3879,16 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>86</v>
+      </c>
+      <c r="F44" t="s">
         <v>87</v>
       </c>
-      <c r="F44" t="s">
-        <v>88</v>
-      </c>
       <c r="G44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H44" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I44" t="n">
         <v>3</v>
@@ -3938,16 +3908,16 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>7</v>
+        <v>88</v>
       </c>
       <c r="F45" t="s">
-        <v>8</v>
+        <v>89</v>
       </c>
       <c r="G45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H45" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I45" t="n">
         <v>3</v>
@@ -3967,16 +3937,16 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>89</v>
+        <v>8</v>
       </c>
       <c r="F46" t="s">
-        <v>90</v>
+        <v>9</v>
       </c>
       <c r="G46" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H46" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I46" t="n">
         <v>3</v>
@@ -3996,16 +3966,16 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
+        <v>90</v>
+      </c>
+      <c r="F47" t="s">
         <v>91</v>
       </c>
-      <c r="F47" t="s">
-        <v>92</v>
-      </c>
       <c r="G47" t="n">
         <v>1</v>
       </c>
       <c r="H47" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I47" t="n">
         <v>3</v>
@@ -4025,16 +3995,16 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>92</v>
+      </c>
+      <c r="F48" t="s">
         <v>93</v>
       </c>
-      <c r="F48" t="s">
-        <v>94</v>
-      </c>
       <c r="G48" t="n">
         <v>1</v>
       </c>
       <c r="H48" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I48" t="n">
         <v>3</v>
@@ -4054,16 +4024,16 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>94</v>
+      </c>
+      <c r="F49" t="s">
         <v>95</v>
       </c>
-      <c r="F49" t="s">
-        <v>96</v>
-      </c>
       <c r="G49" t="n">
         <v>1</v>
       </c>
       <c r="H49" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I49" t="n">
         <v>3</v>
@@ -4083,16 +4053,16 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>96</v>
+      </c>
+      <c r="F50" t="s">
         <v>97</v>
       </c>
-      <c r="F50" t="s">
-        <v>98</v>
-      </c>
       <c r="G50" t="n">
         <v>1</v>
       </c>
       <c r="H50" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I50" t="n">
         <v>3</v>
@@ -4112,16 +4082,16 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>98</v>
+      </c>
+      <c r="F51" t="s">
         <v>99</v>
       </c>
-      <c r="F51" t="s">
-        <v>100</v>
-      </c>
       <c r="G51" t="n">
         <v>1</v>
       </c>
       <c r="H51" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I51" t="n">
         <v>3</v>
@@ -4141,16 +4111,16 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>100</v>
+      </c>
+      <c r="F52" t="s">
         <v>101</v>
       </c>
-      <c r="F52" t="s">
-        <v>102</v>
-      </c>
       <c r="G52" t="n">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="H52" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I52" t="n">
         <v>3</v>
@@ -4170,16 +4140,16 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>102</v>
+      </c>
+      <c r="F53" t="s">
         <v>103</v>
       </c>
-      <c r="F53" t="s">
-        <v>104</v>
-      </c>
       <c r="G53" t="n">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="H53" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I53" t="n">
         <v>3</v>
@@ -4199,16 +4169,16 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>104</v>
+      </c>
+      <c r="F54" t="s">
         <v>105</v>
       </c>
-      <c r="F54" t="s">
-        <v>106</v>
-      </c>
       <c r="G54" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H54" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I54" t="n">
         <v>3</v>
@@ -4228,16 +4198,16 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>106</v>
+      </c>
+      <c r="F55" t="s">
         <v>107</v>
       </c>
-      <c r="F55" t="s">
-        <v>108</v>
-      </c>
       <c r="G55" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H55" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I55" t="n">
         <v>3</v>
@@ -4257,16 +4227,16 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>108</v>
+      </c>
+      <c r="F56" t="s">
         <v>109</v>
       </c>
-      <c r="F56" t="s">
-        <v>110</v>
-      </c>
       <c r="G56" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H56" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I56" t="n">
         <v>3</v>
@@ -4286,16 +4256,16 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>110</v>
+      </c>
+      <c r="F57" t="s">
         <v>111</v>
       </c>
-      <c r="F57" t="s">
-        <v>112</v>
-      </c>
       <c r="G57" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H57" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I57" t="n">
         <v>3</v>
@@ -4315,16 +4285,16 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>112</v>
+      </c>
+      <c r="F58" t="s">
         <v>113</v>
       </c>
-      <c r="F58" t="s">
-        <v>114</v>
-      </c>
       <c r="G58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H58" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I58" t="n">
         <v>3</v>
@@ -4344,16 +4314,16 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>114</v>
+      </c>
+      <c r="F59" t="s">
         <v>115</v>
       </c>
-      <c r="F59" t="s">
-        <v>116</v>
-      </c>
       <c r="G59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H59" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I59" t="n">
         <v>3</v>
@@ -4373,16 +4343,16 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>116</v>
+      </c>
+      <c r="F60" t="s">
         <v>117</v>
       </c>
-      <c r="F60" t="s">
-        <v>118</v>
-      </c>
       <c r="G60" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H60" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I60" t="n">
         <v>3</v>
@@ -4402,16 +4372,16 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>118</v>
+      </c>
+      <c r="F61" t="s">
         <v>119</v>
       </c>
-      <c r="F61" t="s">
-        <v>120</v>
-      </c>
       <c r="G61" t="n">
         <v>1</v>
       </c>
       <c r="H61" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I61" t="n">
         <v>3</v>
@@ -4431,16 +4401,16 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>120</v>
+      </c>
+      <c r="F62" t="s">
         <v>121</v>
       </c>
-      <c r="F62" t="s">
-        <v>122</v>
-      </c>
       <c r="G62" t="n">
         <v>1</v>
       </c>
       <c r="H62" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I62" t="n">
         <v>3</v>
@@ -4460,16 +4430,16 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>122</v>
+      </c>
+      <c r="F63" t="s">
         <v>123</v>
       </c>
-      <c r="F63" t="s">
-        <v>124</v>
-      </c>
       <c r="G63" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H63" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I63" t="n">
         <v>3</v>
@@ -4489,16 +4459,16 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>124</v>
+      </c>
+      <c r="F64" t="s">
         <v>125</v>
       </c>
-      <c r="F64" t="s">
-        <v>126</v>
-      </c>
       <c r="G64" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H64" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I64" t="n">
         <v>3</v>
@@ -4518,16 +4488,16 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>126</v>
+      </c>
+      <c r="F65" t="s">
         <v>127</v>
       </c>
-      <c r="F65" t="s">
-        <v>128</v>
-      </c>
       <c r="G65" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H65" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I65" t="n">
         <v>3</v>
@@ -4547,16 +4517,16 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>128</v>
+      </c>
+      <c r="F66" t="s">
         <v>129</v>
       </c>
-      <c r="F66" t="s">
-        <v>130</v>
-      </c>
       <c r="G66" t="n">
         <v>1</v>
       </c>
       <c r="H66" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I66" t="n">
         <v>3</v>
@@ -4576,16 +4546,16 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>130</v>
+      </c>
+      <c r="F67" t="s">
         <v>131</v>
       </c>
-      <c r="F67" t="s">
-        <v>132</v>
-      </c>
       <c r="G67" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H67" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I67" t="n">
         <v>3</v>
@@ -4605,16 +4575,16 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F68" t="s">
-        <v>134</v>
+        <v>5</v>
       </c>
       <c r="G68" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H68" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I68" t="n">
         <v>3</v>
@@ -4634,16 +4604,16 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F69" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
       </c>
       <c r="H69" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I69" t="n">
         <v>3</v>
@@ -4663,16 +4633,16 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F70" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G70" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H70" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I70" t="n">
         <v>3</v>
@@ -4692,16 +4662,16 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F71" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G71" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H71" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I71" t="n">
         <v>3</v>
@@ -4721,16 +4691,16 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F72" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
       </c>
       <c r="H72" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I72" t="n">
         <v>3</v>
@@ -4750,16 +4720,16 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F73" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
       </c>
       <c r="H73" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I73" t="n">
         <v>3</v>
@@ -4779,16 +4749,16 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F74" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
       </c>
       <c r="H74" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I74" t="n">
         <v>3</v>
@@ -4808,16 +4778,16 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="F75" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
       </c>
       <c r="H75" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I75" t="n">
         <v>3</v>
@@ -4837,16 +4807,16 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="F76" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
       </c>
       <c r="H76" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I76" t="n">
         <v>3</v>
@@ -4866,16 +4836,16 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F77" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
       </c>
       <c r="H77" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I77" t="n">
         <v>3</v>
@@ -4895,16 +4865,16 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F78" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
       </c>
       <c r="H78" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I78" t="n">
         <v>3</v>
@@ -4924,16 +4894,16 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F79" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
       </c>
       <c r="H79" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I79" t="n">
         <v>3</v>
@@ -4953,16 +4923,16 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F80" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
       </c>
       <c r="H80" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I80" t="n">
         <v>3</v>
@@ -4982,16 +4952,16 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F81" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
       </c>
       <c r="H81" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I81" t="n">
         <v>3</v>
@@ -5011,16 +4981,16 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F82" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
       </c>
       <c r="H82" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I82" t="n">
         <v>3</v>
@@ -5040,16 +5010,16 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F83" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
       </c>
       <c r="H83" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I83" t="n">
         <v>3</v>
@@ -5069,16 +5039,16 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F84" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
       </c>
       <c r="H84" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I84" t="n">
         <v>3</v>
@@ -5098,16 +5068,16 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F85" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
       </c>
       <c r="H85" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I85" t="n">
         <v>3</v>
@@ -5127,16 +5097,16 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F86" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G86" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H86" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I86" t="n">
         <v>3</v>
@@ -5156,16 +5126,16 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F87" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G87" t="n">
         <v>2</v>
       </c>
       <c r="H87" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I87" t="n">
         <v>3</v>
@@ -5185,16 +5155,16 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F88" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G88" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H88" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I88" t="n">
         <v>3</v>
@@ -5214,16 +5184,16 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F89" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G89" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H89" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I89" t="n">
         <v>3</v>
@@ -5243,16 +5213,16 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F90" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G90" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H90" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I90" t="n">
         <v>3</v>
@@ -5272,16 +5242,16 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F91" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
       </c>
       <c r="H91" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I91" t="n">
         <v>3</v>
@@ -5301,16 +5271,16 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F92" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
       </c>
       <c r="H92" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I92" t="n">
         <v>3</v>
@@ -5330,16 +5300,16 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F93" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
       </c>
       <c r="H93" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I93" t="n">
         <v>3</v>
@@ -5359,16 +5329,16 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F94" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
       </c>
       <c r="H94" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I94" t="n">
         <v>3</v>
@@ -5388,16 +5358,16 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F95" t="s">
-        <v>186</v>
+        <v>111</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
       </c>
       <c r="H95" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I95" t="n">
         <v>3</v>
@@ -5417,16 +5387,16 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F96" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
       </c>
       <c r="H96" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I96" t="n">
         <v>3</v>
@@ -5446,16 +5416,16 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F97" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
       </c>
       <c r="H97" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I97" t="n">
         <v>3</v>
@@ -5475,16 +5445,16 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F98" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G98" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H98" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I98" t="n">
         <v>3</v>
@@ -5504,16 +5474,16 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F99" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G99" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H99" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I99" t="n">
         <v>3</v>
@@ -5533,16 +5503,16 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F100" t="s">
-        <v>196</v>
+        <v>91</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
       </c>
       <c r="H100" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I100" t="n">
         <v>3</v>
@@ -5562,16 +5532,16 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F101" t="s">
-        <v>198</v>
+        <v>93</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
       </c>
       <c r="H101" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I101" t="n">
         <v>3</v>
@@ -5591,16 +5561,16 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="F102" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
       </c>
       <c r="H102" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I102" t="n">
         <v>3</v>
@@ -5620,16 +5590,16 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F103" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="G103" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H103" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I103" t="n">
         <v>3</v>
@@ -5649,16 +5619,16 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="F104" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="G104" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H104" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I104" t="n">
         <v>3</v>
@@ -5678,16 +5648,16 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="F105" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
       </c>
       <c r="H105" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I105" t="n">
         <v>3</v>
@@ -5707,16 +5677,16 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="F106" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
       </c>
       <c r="H106" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I106" t="n">
         <v>3</v>
@@ -5736,16 +5706,16 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="F107" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
       </c>
       <c r="H107" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I107" t="n">
         <v>3</v>
@@ -5765,16 +5735,16 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="F108" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="G108" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H108" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I108" t="n">
         <v>3</v>
@@ -5794,16 +5764,16 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="F109" t="s">
-        <v>214</v>
+        <v>109</v>
       </c>
       <c r="G109" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H109" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I109" t="n">
         <v>3</v>
@@ -5823,16 +5793,16 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="F110" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
       </c>
       <c r="H110" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I110" t="n">
         <v>3</v>
@@ -5852,16 +5822,16 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="F111" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
       </c>
       <c r="H111" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I111" t="n">
         <v>3</v>
@@ -5881,16 +5851,16 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="F112" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
       </c>
       <c r="H112" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I112" t="n">
         <v>3</v>
@@ -5910,16 +5880,16 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="F113" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
       </c>
       <c r="H113" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I113" t="n">
         <v>3</v>
@@ -5939,16 +5909,16 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="F114" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="G114" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H114" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I114" t="n">
         <v>3</v>
@@ -5968,16 +5938,16 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="F115" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="G115" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H115" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I115" t="n">
         <v>3</v>
@@ -5997,16 +5967,16 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="F116" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
       </c>
       <c r="H116" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I116" t="n">
         <v>3</v>
@@ -6026,16 +5996,16 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="F117" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
       </c>
       <c r="H117" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I117" t="n">
         <v>3</v>
@@ -6055,16 +6025,16 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="F118" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
       </c>
       <c r="H118" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I118" t="n">
         <v>3</v>
@@ -6084,16 +6054,16 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="F119" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
       </c>
       <c r="H119" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I119" t="n">
         <v>3</v>
@@ -6113,16 +6083,16 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="F120" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
       </c>
       <c r="H120" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I120" t="n">
         <v>3</v>
@@ -6142,16 +6112,16 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="F121" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
       </c>
       <c r="H121" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I121" t="n">
         <v>3</v>
@@ -6171,16 +6141,16 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="F122" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
       </c>
       <c r="H122" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I122" t="n">
         <v>3</v>
@@ -6200,16 +6170,16 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="F123" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
       </c>
       <c r="H123" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I123" t="n">
         <v>3</v>
@@ -6229,16 +6199,16 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="F124" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="G124" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H124" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I124" t="n">
         <v>3</v>
@@ -6258,16 +6228,16 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="F125" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="G125" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H125" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I125" t="n">
         <v>3</v>
@@ -6287,16 +6257,16 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="F126" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
       </c>
       <c r="H126" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I126" t="n">
         <v>3</v>
@@ -6316,16 +6286,16 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="F127" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="G127" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H127" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I127" t="n">
         <v>3</v>
@@ -6345,16 +6315,16 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="F128" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="G128" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H128" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I128" t="n">
         <v>3</v>
@@ -6374,16 +6344,16 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>93</v>
+        <v>247</v>
       </c>
       <c r="F129" t="s">
-        <v>94</v>
+        <v>248</v>
       </c>
       <c r="G129" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H129" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I129" t="n">
         <v>3</v>
@@ -6403,16 +6373,16 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>253</v>
+        <v>94</v>
       </c>
       <c r="F130" t="s">
-        <v>254</v>
+        <v>95</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
       </c>
       <c r="H130" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I130" t="n">
         <v>3</v>
@@ -6432,16 +6402,16 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>255</v>
+        <v>2</v>
       </c>
       <c r="F131" t="s">
-        <v>256</v>
+        <v>0</v>
       </c>
       <c r="G131" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H131" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I131" t="n">
         <v>3</v>
@@ -6461,16 +6431,16 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="F132" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
       </c>
       <c r="H132" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I132" t="n">
         <v>3</v>
@@ -6490,16 +6460,16 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="F133" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
       </c>
       <c r="H133" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I133" t="n">
         <v>3</v>
@@ -6519,16 +6489,16 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="F134" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
       </c>
       <c r="H134" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I134" t="n">
         <v>3</v>
@@ -6548,16 +6518,16 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="F135" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
       </c>
       <c r="H135" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I135" t="n">
         <v>3</v>
@@ -6577,16 +6547,16 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="F136" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
       </c>
       <c r="H136" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I136" t="n">
         <v>3</v>
@@ -6606,16 +6576,16 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="F137" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
       </c>
       <c r="H137" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I137" t="n">
         <v>3</v>
@@ -6635,16 +6605,16 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="F138" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
       </c>
       <c r="H138" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I138" t="n">
         <v>3</v>
@@ -6664,16 +6634,16 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="F139" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="G139" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H139" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I139" t="n">
         <v>3</v>
@@ -6693,16 +6663,16 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="F140" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
       </c>
       <c r="H140" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I140" t="n">
         <v>3</v>
@@ -6722,16 +6692,16 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="F141" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="G141" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H141" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I141" t="n">
         <v>3</v>
@@ -6751,16 +6721,16 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="F142" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="G142" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H142" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I142" t="n">
         <v>3</v>
@@ -6780,16 +6750,16 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="F143" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
       </c>
       <c r="H143" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I143" t="n">
         <v>3</v>
@@ -6809,16 +6779,16 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="F144" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="G144" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H144" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I144" t="n">
         <v>3</v>
@@ -6838,16 +6808,16 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="F145" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
       </c>
       <c r="H145" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I145" t="n">
         <v>3</v>
@@ -6867,16 +6837,16 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="F146" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="G146" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H146" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I146" t="n">
         <v>3</v>
@@ -6896,16 +6866,16 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="F147" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
       </c>
       <c r="H147" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I147" t="n">
         <v>3</v>
@@ -6925,16 +6895,16 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="F148" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="G148" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H148" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I148" t="n">
         <v>3</v>
@@ -6954,16 +6924,16 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="F149" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
       </c>
       <c r="H149" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I149" t="n">
         <v>3</v>
@@ -6983,16 +6953,16 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="F150" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
       </c>
       <c r="H150" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I150" t="n">
         <v>3</v>
@@ -7012,16 +6982,16 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="F151" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
       </c>
       <c r="H151" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I151" t="n">
         <v>3</v>
@@ -7041,16 +7011,16 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="F152" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
       </c>
       <c r="H152" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I152" t="n">
         <v>3</v>
@@ -7070,16 +7040,16 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="F153" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
       </c>
       <c r="H153" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I153" t="n">
         <v>3</v>
@@ -7099,16 +7069,16 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>2</v>
+        <v>293</v>
       </c>
       <c r="F154" t="s">
-        <v>3</v>
+        <v>294</v>
       </c>
       <c r="G154" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H154" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I154" t="n">
         <v>3</v>
@@ -7128,16 +7098,16 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="F155" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="G155" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H155" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I155" t="n">
         <v>3</v>
@@ -7157,16 +7127,16 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>303</v>
+        <v>4</v>
       </c>
       <c r="F156" t="s">
-        <v>304</v>
+        <v>5</v>
       </c>
       <c r="G156" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H156" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I156" t="n">
         <v>3</v>
@@ -7186,16 +7156,16 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="F157" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="G157" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H157" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I157" t="n">
         <v>3</v>
@@ -7215,16 +7185,16 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="F158" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
       </c>
       <c r="H158" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I158" t="n">
         <v>3</v>
@@ -7244,16 +7214,16 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="F159" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
       </c>
       <c r="H159" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I159" t="n">
         <v>3</v>
@@ -7273,16 +7243,16 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="F160" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
       </c>
       <c r="H160" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I160" t="n">
         <v>3</v>
@@ -7302,16 +7272,16 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="F161" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
       </c>
       <c r="H161" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I161" t="n">
         <v>3</v>
@@ -7331,16 +7301,16 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="F162" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
       </c>
       <c r="H162" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I162" t="n">
         <v>3</v>
@@ -7360,16 +7330,16 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="F163" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
       </c>
       <c r="H163" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I163" t="n">
         <v>3</v>
@@ -7389,16 +7359,16 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="F164" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
       </c>
       <c r="H164" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I164" t="n">
         <v>3</v>
@@ -7418,16 +7388,16 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="F165" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
       </c>
       <c r="H165" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I165" t="n">
         <v>3</v>
@@ -7447,16 +7417,16 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="F166" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
       </c>
       <c r="H166" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I166" t="n">
         <v>3</v>
@@ -7476,16 +7446,16 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="F167" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
       </c>
       <c r="H167" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I167" t="n">
         <v>3</v>
@@ -7505,16 +7475,16 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="F168" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
       </c>
       <c r="H168" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I168" t="n">
         <v>3</v>
@@ -7534,16 +7504,16 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="F169" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
       </c>
       <c r="H169" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I169" t="n">
         <v>3</v>
@@ -7563,16 +7533,16 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="F170" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
       </c>
       <c r="H170" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I170" t="n">
         <v>3</v>
@@ -7592,16 +7562,16 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="F171" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="G171" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H171" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I171" t="n">
         <v>3</v>
@@ -7621,16 +7591,16 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="F172" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
       </c>
       <c r="H172" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I172" t="n">
         <v>3</v>
@@ -7650,16 +7620,16 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="F173" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="G173" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H173" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I173" t="n">
         <v>3</v>
@@ -7679,16 +7649,16 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="F174" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
       </c>
       <c r="H174" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I174" t="n">
         <v>3</v>
@@ -7708,16 +7678,16 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="F175" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="G175" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H175" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I175" t="n">
         <v>3</v>
@@ -7737,16 +7707,16 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="F176" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
       </c>
       <c r="H176" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I176" t="n">
         <v>3</v>
@@ -7766,16 +7736,16 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="F177" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
       </c>
       <c r="H177" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I177" t="n">
         <v>3</v>
@@ -7795,16 +7765,16 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="F178" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
       </c>
       <c r="H178" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I178" t="n">
         <v>3</v>
@@ -7824,16 +7794,16 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="F179" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="G179" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H179" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I179" t="n">
         <v>3</v>
@@ -7853,16 +7823,16 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="F180" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="G180" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H180" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I180" t="n">
         <v>3</v>
@@ -7882,16 +7852,16 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="F181" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="G181" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H181" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I181" t="n">
         <v>3</v>
@@ -7911,16 +7881,16 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="F182" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="G182" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H182" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I182" t="n">
         <v>3</v>
@@ -7940,16 +7910,16 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="F183" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
       </c>
       <c r="H183" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I183" t="n">
         <v>3</v>
@@ -7969,16 +7939,16 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="F184" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
       </c>
       <c r="H184" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I184" t="n">
         <v>3</v>
@@ -7998,16 +7968,16 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="F185" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
       </c>
       <c r="H185" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I185" t="n">
         <v>3</v>
@@ -8027,16 +7997,16 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="F186" t="s">
-        <v>364</v>
+        <v>302</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
       </c>
       <c r="H186" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I186" t="n">
         <v>3</v>
@@ -8056,16 +8026,16 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="F187" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
       </c>
       <c r="H187" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I187" t="n">
         <v>3</v>
@@ -8085,16 +8055,16 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="F188" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
       </c>
       <c r="H188" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I188" t="n">
         <v>3</v>
@@ -8114,16 +8084,16 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="F189" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="G189" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H189" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I189" t="n">
         <v>3</v>
@@ -8143,16 +8113,16 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="F190" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
       </c>
       <c r="H190" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I190" t="n">
         <v>3</v>
@@ -8172,16 +8142,16 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="F191" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="G191" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H191" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I191" t="n">
         <v>3</v>
@@ -8201,16 +8171,16 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="F192" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
       </c>
       <c r="H192" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I192" t="n">
         <v>3</v>
@@ -8230,16 +8200,16 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="F193" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
       </c>
       <c r="H193" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I193" t="n">
         <v>3</v>
@@ -8259,16 +8229,16 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="F194" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
       </c>
       <c r="H194" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I194" t="n">
         <v>3</v>
@@ -8288,16 +8258,16 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="F195" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
       </c>
       <c r="H195" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I195" t="n">
         <v>3</v>
@@ -8317,16 +8287,16 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="F196" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
       </c>
       <c r="H196" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I196" t="n">
         <v>3</v>
@@ -8346,16 +8316,16 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="F197" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="G197" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H197" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I197" t="n">
         <v>3</v>
@@ -8375,16 +8345,16 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="F198" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
       </c>
       <c r="H198" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I198" t="n">
         <v>3</v>
@@ -8404,16 +8374,16 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="F199" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="G199" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H199" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I199" t="n">
         <v>3</v>
@@ -8433,16 +8403,16 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="F200" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
       </c>
       <c r="H200" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I200" t="n">
         <v>3</v>
@@ -8462,16 +8432,16 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="F201" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
       </c>
       <c r="H201" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I201" t="n">
         <v>3</v>
@@ -8491,16 +8461,16 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="F202" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
       </c>
       <c r="H202" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I202" t="n">
         <v>3</v>
@@ -8520,16 +8490,16 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="F203" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
       </c>
       <c r="H203" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I203" t="n">
         <v>3</v>
@@ -8549,16 +8519,16 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="F204" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
       </c>
       <c r="H204" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I204" t="n">
         <v>3</v>
@@ -8578,16 +8548,16 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="F205" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="G205" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H205" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I205" t="n">
         <v>3</v>
@@ -8607,16 +8577,16 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="F206" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
       </c>
       <c r="H206" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I206" t="n">
         <v>3</v>
@@ -8636,16 +8606,16 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="F207" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="G207" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H207" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I207" t="n">
         <v>3</v>
@@ -8665,16 +8635,16 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="F208" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
       </c>
       <c r="H208" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I208" t="n">
         <v>3</v>
@@ -8694,16 +8664,16 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="F209" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
       </c>
       <c r="H209" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I209" t="n">
         <v>3</v>
@@ -8723,16 +8693,16 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="F210" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
       </c>
       <c r="H210" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I210" t="n">
         <v>3</v>
@@ -8752,16 +8722,16 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="F211" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
       </c>
       <c r="H211" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I211" t="n">
         <v>3</v>
@@ -8781,16 +8751,16 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="F212" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
       </c>
       <c r="H212" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I212" t="n">
         <v>3</v>
@@ -8810,16 +8780,16 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="F213" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="G213" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H213" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I213" t="n">
         <v>3</v>
@@ -8839,16 +8809,16 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="F214" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
       </c>
       <c r="H214" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I214" t="n">
         <v>3</v>
@@ -8868,16 +8838,16 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="F215" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="G215" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H215" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I215" t="n">
         <v>3</v>
@@ -8897,16 +8867,16 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="F216" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
       </c>
       <c r="H216" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I216" t="n">
         <v>3</v>
@@ -8926,16 +8896,16 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="F217" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="G217" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H217" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I217" t="n">
         <v>3</v>
@@ -8955,16 +8925,16 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="F218" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="G218" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H218" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I218" t="n">
         <v>3</v>
@@ -8984,16 +8954,16 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="F219" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
       <c r="G219" t="n">
         <v>2</v>
       </c>
       <c r="H219" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I219" t="n">
         <v>3</v>
@@ -9013,16 +8983,16 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="F220" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="G220" t="n">
         <v>2</v>
       </c>
       <c r="H220" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I220" t="n">
         <v>3</v>
@@ -9042,16 +9012,16 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="F221" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="G221" t="n">
         <v>2</v>
       </c>
       <c r="H221" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I221" t="n">
         <v>3</v>
@@ -9071,16 +9041,16 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="F222" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="G222" t="n">
         <v>2</v>
       </c>
       <c r="H222" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I222" t="n">
         <v>3</v>
@@ -9100,16 +9070,16 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="F223" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
       <c r="G223" t="n">
         <v>2</v>
       </c>
       <c r="H223" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I223" t="n">
         <v>3</v>
@@ -9129,16 +9099,16 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="F224" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="G224" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H224" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I224" t="n">
         <v>3</v>
@@ -9158,16 +9128,16 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="F225" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="G225" t="n">
         <v>2</v>
       </c>
       <c r="H225" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I225" t="n">
         <v>3</v>
@@ -9187,16 +9157,16 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="F226" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="G226" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H226" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I226" t="n">
         <v>3</v>
@@ -9216,16 +9186,16 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="F227" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="G227" t="n">
         <v>2</v>
       </c>
       <c r="H227" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I227" t="n">
         <v>3</v>
@@ -9245,16 +9215,16 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="F228" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="G228" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H228" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I228" t="n">
         <v>3</v>
@@ -9274,16 +9244,16 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="F229" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="G229" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H229" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I229" t="n">
         <v>3</v>
@@ -9303,16 +9273,16 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="F230" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
       </c>
       <c r="H230" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I230" t="n">
         <v>3</v>
@@ -9332,16 +9302,16 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="F231" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
       </c>
       <c r="H231" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I231" t="n">
         <v>3</v>
@@ -9361,16 +9331,16 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="F232" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="G232" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H232" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I232" t="n">
         <v>3</v>
@@ -9390,16 +9360,16 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="F233" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="G233" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H233" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I233" t="n">
         <v>3</v>
@@ -9419,16 +9389,16 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="F234" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="G234" t="n">
         <v>2</v>
       </c>
       <c r="H234" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I234" t="n">
         <v>3</v>
@@ -9448,16 +9418,16 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="F235" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="G235" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H235" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I235" t="n">
         <v>3</v>
@@ -9477,16 +9447,16 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="F236" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="G236" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H236" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I236" t="n">
         <v>3</v>
@@ -9506,16 +9476,16 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="F237" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
       </c>
       <c r="H237" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I237" t="n">
         <v>3</v>
@@ -9535,16 +9505,16 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="F238" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
       </c>
       <c r="H238" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I238" t="n">
         <v>3</v>
@@ -9564,16 +9534,16 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="F239" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="G239" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H239" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I239" t="n">
         <v>3</v>
@@ -9593,16 +9563,16 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="F240" t="s">
-        <v>472</v>
+        <v>463</v>
       </c>
       <c r="G240" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H240" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I240" t="n">
         <v>3</v>
@@ -9622,16 +9592,16 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>473</v>
+        <v>464</v>
       </c>
       <c r="F241" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="G241" t="n">
         <v>2</v>
       </c>
       <c r="H241" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I241" t="n">
         <v>3</v>
@@ -9651,16 +9621,16 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="F242" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
       <c r="G242" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H242" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I242" t="n">
         <v>3</v>
@@ -9680,16 +9650,16 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>477</v>
+        <v>468</v>
       </c>
       <c r="F243" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
       <c r="G243" t="n">
         <v>2</v>
       </c>
       <c r="H243" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I243" t="n">
         <v>3</v>
@@ -9709,16 +9679,16 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
       <c r="F244" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="G244" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H244" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I244" t="n">
         <v>3</v>
@@ -9738,16 +9708,16 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="F245" t="s">
-        <v>482</v>
+        <v>473</v>
       </c>
       <c r="G245" t="n">
         <v>2</v>
       </c>
       <c r="H245" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I245" t="n">
         <v>3</v>
@@ -9767,16 +9737,16 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="F246" t="s">
-        <v>484</v>
+        <v>475</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
       </c>
       <c r="H246" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I246" t="n">
         <v>3</v>
@@ -9796,16 +9766,16 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>485</v>
+        <v>476</v>
       </c>
       <c r="F247" t="s">
-        <v>486</v>
+        <v>477</v>
       </c>
       <c r="G247" t="n">
         <v>2</v>
       </c>
       <c r="H247" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I247" t="n">
         <v>3</v>
@@ -9825,16 +9795,16 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>487</v>
+        <v>478</v>
       </c>
       <c r="F248" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
       </c>
       <c r="H248" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I248" t="n">
         <v>3</v>
@@ -9854,16 +9824,16 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="F249" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
       <c r="G249" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H249" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I249" t="n">
         <v>3</v>
@@ -9883,16 +9853,16 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="F250" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
       </c>
       <c r="H250" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I250" t="n">
         <v>3</v>
@@ -9912,16 +9882,16 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="F251" t="s">
-        <v>494</v>
+        <v>485</v>
       </c>
       <c r="G251" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H251" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I251" t="n">
         <v>3</v>
@@ -9941,16 +9911,16 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>495</v>
+        <v>486</v>
       </c>
       <c r="F252" t="s">
-        <v>496</v>
+        <v>487</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
       </c>
       <c r="H252" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I252" t="n">
         <v>3</v>
@@ -9970,16 +9940,16 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>497</v>
+        <v>488</v>
       </c>
       <c r="F253" t="s">
-        <v>498</v>
+        <v>489</v>
       </c>
       <c r="G253" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H253" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I253" t="n">
         <v>3</v>
@@ -9999,16 +9969,16 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
       <c r="F254" t="s">
-        <v>500</v>
+        <v>491</v>
       </c>
       <c r="G254" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H254" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I254" t="n">
         <v>3</v>
@@ -10028,16 +9998,16 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
       <c r="F255" t="s">
-        <v>502</v>
+        <v>493</v>
       </c>
       <c r="G255" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H255" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I255" t="n">
         <v>3</v>
@@ -10057,16 +10027,16 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
       <c r="F256" t="s">
-        <v>504</v>
+        <v>495</v>
       </c>
       <c r="G256" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H256" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I256" t="n">
         <v>3</v>
@@ -10086,16 +10056,16 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>505</v>
+        <v>496</v>
       </c>
       <c r="F257" t="s">
-        <v>506</v>
+        <v>497</v>
       </c>
       <c r="G257" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H257" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I257" t="n">
         <v>3</v>
@@ -10115,16 +10085,16 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>507</v>
+        <v>498</v>
       </c>
       <c r="F258" t="s">
-        <v>508</v>
+        <v>499</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
       </c>
       <c r="H258" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I258" t="n">
         <v>3</v>
@@ -10144,16 +10114,16 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>509</v>
+        <v>500</v>
       </c>
       <c r="F259" t="s">
-        <v>510</v>
+        <v>501</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
       </c>
       <c r="H259" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I259" t="n">
         <v>3</v>
@@ -10173,16 +10143,16 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
       <c r="F260" t="s">
-        <v>512</v>
+        <v>503</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
       </c>
       <c r="H260" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I260" t="n">
         <v>3</v>
@@ -10202,16 +10172,16 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>513</v>
+        <v>504</v>
       </c>
       <c r="F261" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="G261" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H261" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I261" t="n">
         <v>3</v>
@@ -10231,16 +10201,16 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="F262" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
       <c r="G262" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H262" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I262" t="n">
         <v>3</v>
@@ -10260,16 +10230,16 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="F263" t="s">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="G263" t="n">
         <v>2</v>
       </c>
       <c r="H263" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I263" t="n">
         <v>3</v>
@@ -10289,16 +10259,16 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>121</v>
+        <v>510</v>
       </c>
       <c r="F264" t="s">
-        <v>122</v>
+        <v>511</v>
       </c>
       <c r="G264" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H264" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I264" t="n">
         <v>3</v>
@@ -10318,16 +10288,16 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="F265" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="G265" t="n">
         <v>2</v>
       </c>
       <c r="H265" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I265" t="n">
         <v>3</v>
@@ -10347,16 +10317,16 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>521</v>
+        <v>122</v>
       </c>
       <c r="F266" t="s">
-        <v>522</v>
+        <v>123</v>
       </c>
       <c r="G266" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H266" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I266" t="n">
         <v>3</v>
@@ -10376,16 +10346,16 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
       <c r="F267" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
       <c r="G267" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H267" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I267" t="n">
         <v>3</v>
@@ -10405,16 +10375,16 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>525</v>
+        <v>516</v>
       </c>
       <c r="F268" t="s">
-        <v>526</v>
+        <v>517</v>
       </c>
       <c r="G268" t="n">
         <v>1</v>
       </c>
       <c r="H268" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I268" t="n">
         <v>3</v>
@@ -10434,16 +10404,16 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>527</v>
+        <v>518</v>
       </c>
       <c r="F269" t="s">
-        <v>528</v>
+        <v>519</v>
       </c>
       <c r="G269" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H269" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I269" t="n">
         <v>3</v>
@@ -10463,16 +10433,16 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>529</v>
+        <v>520</v>
       </c>
       <c r="F270" t="s">
-        <v>530</v>
+        <v>9</v>
       </c>
       <c r="G270" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H270" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I270" t="n">
         <v>3</v>
@@ -10492,16 +10462,16 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>531</v>
+        <v>521</v>
       </c>
       <c r="F271" t="s">
-        <v>532</v>
+        <v>522</v>
       </c>
       <c r="G271" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H271" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I271" t="n">
         <v>3</v>
@@ -10521,16 +10491,16 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>533</v>
+        <v>523</v>
       </c>
       <c r="F272" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="G272" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H272" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I272" t="n">
         <v>3</v>
@@ -10550,16 +10520,16 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>535</v>
+        <v>525</v>
       </c>
       <c r="F273" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
       <c r="G273" t="n">
         <v>1</v>
       </c>
       <c r="H273" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I273" t="n">
         <v>3</v>
@@ -10579,16 +10549,16 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>537</v>
+        <v>527</v>
       </c>
       <c r="F274" t="s">
-        <v>538</v>
+        <v>528</v>
       </c>
       <c r="G274" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H274" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I274" t="n">
         <v>3</v>
@@ -10608,16 +10578,16 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>539</v>
+        <v>529</v>
       </c>
       <c r="F275" t="s">
-        <v>540</v>
+        <v>530</v>
       </c>
       <c r="G275" t="n">
         <v>1</v>
       </c>
       <c r="H275" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I275" t="n">
         <v>3</v>
@@ -10637,16 +10607,16 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>541</v>
+        <v>531</v>
       </c>
       <c r="F276" t="s">
-        <v>542</v>
+        <v>532</v>
       </c>
       <c r="G276" t="n">
         <v>1</v>
       </c>
       <c r="H276" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I276" t="n">
         <v>3</v>
@@ -10666,16 +10636,16 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>543</v>
+        <v>533</v>
       </c>
       <c r="F277" t="s">
-        <v>544</v>
+        <v>534</v>
       </c>
       <c r="G277" t="n">
         <v>1</v>
       </c>
       <c r="H277" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I277" t="n">
         <v>3</v>
@@ -10695,16 +10665,16 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>545</v>
+        <v>535</v>
       </c>
       <c r="F278" t="s">
-        <v>546</v>
+        <v>536</v>
       </c>
       <c r="G278" t="n">
         <v>1</v>
       </c>
       <c r="H278" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I278" t="n">
         <v>3</v>
@@ -10724,16 +10694,16 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>547</v>
+        <v>537</v>
       </c>
       <c r="F279" t="s">
-        <v>548</v>
+        <v>538</v>
       </c>
       <c r="G279" t="n">
         <v>1</v>
       </c>
       <c r="H279" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I279" t="n">
         <v>3</v>
@@ -10753,16 +10723,16 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>549</v>
+        <v>539</v>
       </c>
       <c r="F280" t="s">
-        <v>550</v>
+        <v>540</v>
       </c>
       <c r="G280" t="n">
         <v>1</v>
       </c>
       <c r="H280" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I280" t="n">
         <v>3</v>
@@ -10782,16 +10752,16 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>551</v>
+        <v>541</v>
       </c>
       <c r="F281" t="s">
-        <v>552</v>
+        <v>542</v>
       </c>
       <c r="G281" t="n">
         <v>1</v>
       </c>
       <c r="H281" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I281" t="n">
         <v>3</v>
@@ -10811,16 +10781,16 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="F282" t="s">
-        <v>554</v>
+        <v>544</v>
       </c>
       <c r="G282" t="n">
         <v>1</v>
       </c>
       <c r="H282" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I282" t="n">
         <v>3</v>
@@ -10840,16 +10810,16 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>555</v>
+        <v>545</v>
       </c>
       <c r="F283" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="G283" t="n">
         <v>1</v>
       </c>
       <c r="H283" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I283" t="n">
         <v>3</v>
@@ -10869,16 +10839,16 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>557</v>
+        <v>547</v>
       </c>
       <c r="F284" t="s">
-        <v>558</v>
+        <v>548</v>
       </c>
       <c r="G284" t="n">
         <v>1</v>
       </c>
       <c r="H284" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I284" t="n">
         <v>3</v>
@@ -10898,16 +10868,16 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>559</v>
+        <v>549</v>
       </c>
       <c r="F285" t="s">
-        <v>560</v>
+        <v>550</v>
       </c>
       <c r="G285" t="n">
         <v>1</v>
       </c>
       <c r="H285" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I285" t="n">
         <v>3</v>
@@ -10927,16 +10897,16 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>561</v>
+        <v>551</v>
       </c>
       <c r="F286" t="s">
-        <v>562</v>
+        <v>552</v>
       </c>
       <c r="G286" t="n">
         <v>1</v>
       </c>
       <c r="H286" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I286" t="n">
         <v>3</v>
@@ -10956,16 +10926,16 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>29</v>
+        <v>553</v>
       </c>
       <c r="F287" t="s">
-        <v>30</v>
+        <v>554</v>
       </c>
       <c r="G287" t="n">
         <v>1</v>
       </c>
       <c r="H287" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I287" t="n">
         <v>3</v>
@@ -10985,16 +10955,16 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
       <c r="F288" t="s">
-        <v>564</v>
+        <v>556</v>
       </c>
       <c r="G288" t="n">
         <v>1</v>
       </c>
       <c r="H288" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I288" t="n">
         <v>3</v>
@@ -11014,16 +10984,16 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>565</v>
+        <v>30</v>
       </c>
       <c r="F289" t="s">
-        <v>566</v>
+        <v>31</v>
       </c>
       <c r="G289" t="n">
         <v>1</v>
       </c>
       <c r="H289" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I289" t="n">
         <v>3</v>
@@ -11043,16 +11013,16 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>567</v>
+        <v>557</v>
       </c>
       <c r="F290" t="s">
-        <v>568</v>
+        <v>558</v>
       </c>
       <c r="G290" t="n">
         <v>1</v>
       </c>
       <c r="H290" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I290" t="n">
         <v>3</v>
@@ -11072,16 +11042,16 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>569</v>
+        <v>559</v>
       </c>
       <c r="F291" t="s">
-        <v>570</v>
+        <v>560</v>
       </c>
       <c r="G291" t="n">
         <v>1</v>
       </c>
       <c r="H291" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I291" t="n">
         <v>3</v>
@@ -11101,16 +11071,16 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>571</v>
+        <v>561</v>
       </c>
       <c r="F292" t="s">
-        <v>572</v>
+        <v>562</v>
       </c>
       <c r="G292" t="n">
         <v>1</v>
       </c>
       <c r="H292" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I292" t="n">
         <v>3</v>
@@ -11130,16 +11100,16 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>573</v>
+        <v>563</v>
       </c>
       <c r="F293" t="s">
-        <v>574</v>
+        <v>564</v>
       </c>
       <c r="G293" t="n">
         <v>1</v>
       </c>
       <c r="H293" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I293" t="n">
         <v>3</v>
@@ -11159,16 +11129,16 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>575</v>
+        <v>565</v>
       </c>
       <c r="F294" t="s">
-        <v>576</v>
+        <v>566</v>
       </c>
       <c r="G294" t="n">
         <v>1</v>
       </c>
       <c r="H294" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I294" t="n">
         <v>3</v>
@@ -11188,16 +11158,16 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>577</v>
+        <v>567</v>
       </c>
       <c r="F295" t="s">
-        <v>578</v>
+        <v>568</v>
       </c>
       <c r="G295" t="n">
         <v>1</v>
       </c>
       <c r="H295" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I295" t="n">
         <v>3</v>
@@ -11217,16 +11187,16 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>579</v>
+        <v>569</v>
       </c>
       <c r="F296" t="s">
-        <v>580</v>
+        <v>570</v>
       </c>
       <c r="G296" t="n">
         <v>1</v>
       </c>
       <c r="H296" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I296" t="n">
         <v>3</v>
@@ -11246,16 +11216,16 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>581</v>
+        <v>571</v>
       </c>
       <c r="F297" t="s">
-        <v>582</v>
+        <v>572</v>
       </c>
       <c r="G297" t="n">
         <v>1</v>
       </c>
       <c r="H297" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I297" t="n">
         <v>3</v>
@@ -11275,16 +11245,16 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>583</v>
+        <v>573</v>
       </c>
       <c r="F298" t="s">
-        <v>584</v>
+        <v>574</v>
       </c>
       <c r="G298" t="n">
         <v>1</v>
       </c>
       <c r="H298" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I298" t="n">
         <v>3</v>
@@ -11304,16 +11274,16 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>585</v>
+        <v>575</v>
       </c>
       <c r="F299" t="s">
-        <v>586</v>
+        <v>576</v>
       </c>
       <c r="G299" t="n">
         <v>1</v>
       </c>
       <c r="H299" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I299" t="n">
         <v>3</v>
@@ -11333,16 +11303,16 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>587</v>
+        <v>577</v>
       </c>
       <c r="F300" t="s">
-        <v>588</v>
+        <v>578</v>
       </c>
       <c r="G300" t="n">
         <v>1</v>
       </c>
       <c r="H300" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I300" t="n">
         <v>3</v>
@@ -11362,16 +11332,16 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>589</v>
+        <v>579</v>
       </c>
       <c r="F301" t="s">
-        <v>590</v>
+        <v>580</v>
       </c>
       <c r="G301" t="n">
         <v>1</v>
       </c>
       <c r="H301" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I301" t="n">
         <v>3</v>
@@ -11391,16 +11361,16 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>591</v>
+        <v>581</v>
       </c>
       <c r="F302" t="s">
-        <v>592</v>
+        <v>582</v>
       </c>
       <c r="G302" t="n">
         <v>1</v>
       </c>
       <c r="H302" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I302" t="n">
         <v>3</v>
@@ -11420,16 +11390,16 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>27</v>
+        <v>583</v>
       </c>
       <c r="F303" t="s">
-        <v>28</v>
+        <v>584</v>
       </c>
       <c r="G303" t="n">
         <v>1</v>
       </c>
       <c r="H303" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I303" t="n">
         <v>3</v>
@@ -11449,16 +11419,16 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>593</v>
+        <v>585</v>
       </c>
       <c r="F304" t="s">
-        <v>594</v>
+        <v>586</v>
       </c>
       <c r="G304" t="n">
         <v>1</v>
       </c>
       <c r="H304" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I304" t="n">
         <v>3</v>
@@ -11478,16 +11448,16 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>595</v>
+        <v>28</v>
       </c>
       <c r="F305" t="s">
-        <v>596</v>
+        <v>29</v>
       </c>
       <c r="G305" t="n">
         <v>1</v>
       </c>
       <c r="H305" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I305" t="n">
         <v>3</v>
@@ -11507,16 +11477,16 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>597</v>
+        <v>587</v>
       </c>
       <c r="F306" t="s">
-        <v>598</v>
+        <v>588</v>
       </c>
       <c r="G306" t="n">
         <v>1</v>
       </c>
       <c r="H306" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I306" t="n">
         <v>3</v>
@@ -11536,16 +11506,16 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>599</v>
+        <v>589</v>
       </c>
       <c r="F307" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="G307" t="n">
         <v>1</v>
       </c>
       <c r="H307" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I307" t="n">
         <v>3</v>
@@ -11565,16 +11535,16 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>601</v>
+        <v>591</v>
       </c>
       <c r="F308" t="s">
-        <v>602</v>
+        <v>592</v>
       </c>
       <c r="G308" t="n">
         <v>1</v>
       </c>
       <c r="H308" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I308" t="n">
         <v>3</v>
@@ -11594,16 +11564,16 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>603</v>
+        <v>593</v>
       </c>
       <c r="F309" t="s">
-        <v>604</v>
+        <v>594</v>
       </c>
       <c r="G309" t="n">
         <v>1</v>
       </c>
       <c r="H309" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I309" t="n">
         <v>3</v>
@@ -11623,16 +11593,16 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>605</v>
+        <v>595</v>
       </c>
       <c r="F310" t="s">
-        <v>606</v>
+        <v>596</v>
       </c>
       <c r="G310" t="n">
         <v>1</v>
       </c>
       <c r="H310" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I310" t="n">
         <v>3</v>
@@ -11652,16 +11622,16 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>607</v>
+        <v>597</v>
       </c>
       <c r="F311" t="s">
-        <v>608</v>
+        <v>598</v>
       </c>
       <c r="G311" t="n">
         <v>1</v>
       </c>
       <c r="H311" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I311" t="n">
         <v>3</v>
@@ -11681,16 +11651,16 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>609</v>
+        <v>599</v>
       </c>
       <c r="F312" t="s">
-        <v>610</v>
+        <v>600</v>
       </c>
       <c r="G312" t="n">
         <v>1</v>
       </c>
       <c r="H312" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I312" t="n">
         <v>3</v>
@@ -11710,16 +11680,16 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>611</v>
+        <v>601</v>
       </c>
       <c r="F313" t="s">
-        <v>612</v>
+        <v>602</v>
       </c>
       <c r="G313" t="n">
         <v>1</v>
       </c>
       <c r="H313" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I313" t="n">
         <v>3</v>
@@ -11739,16 +11709,16 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>613</v>
+        <v>603</v>
       </c>
       <c r="F314" t="s">
-        <v>614</v>
+        <v>604</v>
       </c>
       <c r="G314" t="n">
         <v>1</v>
       </c>
       <c r="H314" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I314" t="n">
         <v>3</v>
@@ -11768,16 +11738,16 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>615</v>
+        <v>605</v>
       </c>
       <c r="F315" t="s">
-        <v>616</v>
+        <v>606</v>
       </c>
       <c r="G315" t="n">
         <v>1</v>
       </c>
       <c r="H315" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I315" t="n">
         <v>3</v>
@@ -11797,16 +11767,16 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>617</v>
+        <v>607</v>
       </c>
       <c r="F316" t="s">
-        <v>618</v>
+        <v>608</v>
       </c>
       <c r="G316" t="n">
         <v>1</v>
       </c>
       <c r="H316" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I316" t="n">
         <v>3</v>
@@ -11826,16 +11796,16 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>619</v>
+        <v>609</v>
       </c>
       <c r="F317" t="s">
-        <v>620</v>
+        <v>610</v>
       </c>
       <c r="G317" t="n">
         <v>1</v>
       </c>
       <c r="H317" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I317" t="n">
         <v>3</v>
@@ -11855,16 +11825,16 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>621</v>
+        <v>611</v>
       </c>
       <c r="F318" t="s">
-        <v>622</v>
+        <v>612</v>
       </c>
       <c r="G318" t="n">
         <v>1</v>
       </c>
       <c r="H318" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I318" t="n">
         <v>3</v>
@@ -11884,16 +11854,16 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
       <c r="F319" t="s">
-        <v>624</v>
+        <v>614</v>
       </c>
       <c r="G319" t="n">
         <v>1</v>
       </c>
       <c r="H319" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I319" t="n">
         <v>3</v>
@@ -11913,16 +11883,16 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>625</v>
+        <v>615</v>
       </c>
       <c r="F320" t="s">
-        <v>626</v>
+        <v>616</v>
       </c>
       <c r="G320" t="n">
         <v>1</v>
       </c>
       <c r="H320" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I320" t="n">
         <v>3</v>
@@ -11942,16 +11912,16 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>627</v>
+        <v>617</v>
       </c>
       <c r="F321" t="s">
-        <v>628</v>
+        <v>618</v>
       </c>
       <c r="G321" t="n">
         <v>1</v>
       </c>
       <c r="H321" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I321" t="n">
         <v>3</v>
@@ -11971,16 +11941,16 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>629</v>
+        <v>619</v>
       </c>
       <c r="F322" t="s">
-        <v>630</v>
+        <v>620</v>
       </c>
       <c r="G322" t="n">
         <v>1</v>
       </c>
       <c r="H322" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I322" t="n">
         <v>3</v>
@@ -12000,16 +11970,16 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>631</v>
+        <v>621</v>
       </c>
       <c r="F323" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
       <c r="G323" t="n">
         <v>1</v>
       </c>
       <c r="H323" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I323" t="n">
         <v>3</v>
@@ -12029,16 +11999,16 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>633</v>
+        <v>623</v>
       </c>
       <c r="F324" t="s">
-        <v>634</v>
+        <v>624</v>
       </c>
       <c r="G324" t="n">
         <v>1</v>
       </c>
       <c r="H324" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I324" t="n">
         <v>3</v>
@@ -12058,16 +12028,16 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>635</v>
+        <v>625</v>
       </c>
       <c r="F325" t="s">
-        <v>636</v>
+        <v>626</v>
       </c>
       <c r="G325" t="n">
         <v>1</v>
       </c>
       <c r="H325" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I325" t="n">
         <v>3</v>
@@ -12087,16 +12057,16 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>637</v>
+        <v>627</v>
       </c>
       <c r="F326" t="s">
-        <v>638</v>
+        <v>628</v>
       </c>
       <c r="G326" t="n">
         <v>1</v>
       </c>
       <c r="H326" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I326" t="n">
         <v>3</v>
@@ -12116,16 +12086,16 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>7</v>
+        <v>629</v>
       </c>
       <c r="F327" t="s">
-        <v>8</v>
+        <v>630</v>
       </c>
       <c r="G327" t="n">
         <v>1</v>
       </c>
       <c r="H327" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I327" t="n">
         <v>3</v>
@@ -12145,16 +12115,16 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
-        <v>639</v>
+        <v>631</v>
       </c>
       <c r="F328" t="s">
-        <v>640</v>
+        <v>632</v>
       </c>
       <c r="G328" t="n">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="H328" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I328" t="n">
         <v>3</v>
@@ -12174,16 +12144,16 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
-        <v>131</v>
+        <v>8</v>
       </c>
       <c r="F329" t="s">
-        <v>132</v>
+        <v>9</v>
       </c>
       <c r="G329" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H329" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I329" t="n">
         <v>3</v>
@@ -12203,16 +12173,16 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
-        <v>641</v>
+        <v>633</v>
       </c>
       <c r="F330" t="s">
-        <v>642</v>
+        <v>103</v>
       </c>
       <c r="G330" t="n">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="H330" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I330" t="n">
         <v>3</v>
@@ -12232,16 +12202,16 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
-        <v>643</v>
+        <v>132</v>
       </c>
       <c r="F331" t="s">
-        <v>644</v>
+        <v>5</v>
       </c>
       <c r="G331" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H331" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I331" t="n">
         <v>3</v>
@@ -12261,16 +12231,16 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
-        <v>645</v>
+        <v>634</v>
       </c>
       <c r="F332" t="s">
-        <v>646</v>
+        <v>635</v>
       </c>
       <c r="G332" t="n">
         <v>1</v>
       </c>
       <c r="H332" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I332" t="n">
         <v>3</v>
@@ -12290,16 +12260,16 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
-        <v>647</v>
+        <v>636</v>
       </c>
       <c r="F333" t="s">
-        <v>648</v>
+        <v>637</v>
       </c>
       <c r="G333" t="n">
         <v>1</v>
       </c>
       <c r="H333" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I333" t="n">
         <v>3</v>
@@ -12319,16 +12289,16 @@
         <v>333</v>
       </c>
       <c r="E334" t="s">
-        <v>649</v>
+        <v>638</v>
       </c>
       <c r="F334" t="s">
-        <v>650</v>
+        <v>639</v>
       </c>
       <c r="G334" t="n">
         <v>1</v>
       </c>
       <c r="H334" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I334" t="n">
         <v>3</v>
@@ -12348,16 +12318,16 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
-        <v>133</v>
+        <v>640</v>
       </c>
       <c r="F335" t="s">
-        <v>134</v>
+        <v>641</v>
       </c>
       <c r="G335" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H335" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I335" t="n">
         <v>3</v>
@@ -12377,16 +12347,16 @@
         <v>335</v>
       </c>
       <c r="E336" t="s">
-        <v>651</v>
+        <v>642</v>
       </c>
       <c r="F336" t="s">
-        <v>652</v>
+        <v>643</v>
       </c>
       <c r="G336" t="n">
         <v>1</v>
       </c>
       <c r="H336" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I336" t="n">
         <v>3</v>
@@ -12406,16 +12376,16 @@
         <v>336</v>
       </c>
       <c r="E337" t="s">
-        <v>653</v>
+        <v>133</v>
       </c>
       <c r="F337" t="s">
-        <v>654</v>
+        <v>134</v>
       </c>
       <c r="G337" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H337" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I337" t="n">
         <v>3</v>
@@ -12435,16 +12405,16 @@
         <v>337</v>
       </c>
       <c r="E338" t="s">
-        <v>655</v>
+        <v>644</v>
       </c>
       <c r="F338" t="s">
-        <v>656</v>
+        <v>645</v>
       </c>
       <c r="G338" t="n">
         <v>1</v>
       </c>
       <c r="H338" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I338" t="n">
         <v>3</v>
@@ -12464,16 +12434,16 @@
         <v>338</v>
       </c>
       <c r="E339" t="s">
-        <v>657</v>
+        <v>646</v>
       </c>
       <c r="F339" t="s">
-        <v>658</v>
+        <v>647</v>
       </c>
       <c r="G339" t="n">
         <v>1</v>
       </c>
       <c r="H339" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I339" t="n">
         <v>3</v>
@@ -12493,16 +12463,16 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
-        <v>659</v>
+        <v>648</v>
       </c>
       <c r="F340" t="s">
-        <v>660</v>
+        <v>649</v>
       </c>
       <c r="G340" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H340" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I340" t="n">
         <v>3</v>
@@ -12522,16 +12492,16 @@
         <v>340</v>
       </c>
       <c r="E341" t="s">
-        <v>661</v>
+        <v>650</v>
       </c>
       <c r="F341" t="s">
-        <v>662</v>
+        <v>651</v>
       </c>
       <c r="G341" t="n">
         <v>1</v>
       </c>
       <c r="H341" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I341" t="n">
         <v>3</v>
@@ -12551,16 +12521,16 @@
         <v>341</v>
       </c>
       <c r="E342" t="s">
-        <v>663</v>
+        <v>652</v>
       </c>
       <c r="F342" t="s">
-        <v>664</v>
+        <v>653</v>
       </c>
       <c r="G342" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H342" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I342" t="n">
         <v>3</v>
@@ -12580,16 +12550,16 @@
         <v>342</v>
       </c>
       <c r="E343" t="s">
-        <v>665</v>
+        <v>654</v>
       </c>
       <c r="F343" t="s">
-        <v>666</v>
+        <v>655</v>
       </c>
       <c r="G343" t="n">
         <v>1</v>
       </c>
       <c r="H343" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I343" t="n">
         <v>3</v>
@@ -12609,16 +12579,16 @@
         <v>343</v>
       </c>
       <c r="E344" t="s">
-        <v>667</v>
+        <v>656</v>
       </c>
       <c r="F344" t="s">
-        <v>668</v>
+        <v>657</v>
       </c>
       <c r="G344" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H344" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I344" t="n">
         <v>3</v>
@@ -12638,16 +12608,16 @@
         <v>344</v>
       </c>
       <c r="E345" t="s">
-        <v>669</v>
+        <v>658</v>
       </c>
       <c r="F345" t="s">
-        <v>670</v>
+        <v>659</v>
       </c>
       <c r="G345" t="n">
         <v>1</v>
       </c>
       <c r="H345" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I345" t="n">
         <v>3</v>
@@ -12667,16 +12637,16 @@
         <v>345</v>
       </c>
       <c r="E346" t="s">
-        <v>671</v>
+        <v>660</v>
       </c>
       <c r="F346" t="s">
-        <v>672</v>
+        <v>661</v>
       </c>
       <c r="G346" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H346" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I346" t="n">
         <v>3</v>
@@ -12696,16 +12666,16 @@
         <v>346</v>
       </c>
       <c r="E347" t="s">
-        <v>673</v>
+        <v>662</v>
       </c>
       <c r="F347" t="s">
-        <v>674</v>
+        <v>663</v>
       </c>
       <c r="G347" t="n">
         <v>1</v>
       </c>
       <c r="H347" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I347" t="n">
         <v>3</v>
@@ -12725,16 +12695,16 @@
         <v>347</v>
       </c>
       <c r="E348" t="s">
-        <v>675</v>
+        <v>664</v>
       </c>
       <c r="F348" t="s">
-        <v>676</v>
+        <v>665</v>
       </c>
       <c r="G348" t="n">
         <v>1</v>
       </c>
       <c r="H348" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I348" t="n">
         <v>3</v>
@@ -12754,16 +12724,16 @@
         <v>348</v>
       </c>
       <c r="E349" t="s">
-        <v>677</v>
+        <v>666</v>
       </c>
       <c r="F349" t="s">
-        <v>678</v>
+        <v>667</v>
       </c>
       <c r="G349" t="n">
         <v>1</v>
       </c>
       <c r="H349" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I349" t="n">
         <v>3</v>
@@ -12783,16 +12753,16 @@
         <v>349</v>
       </c>
       <c r="E350" t="s">
-        <v>679</v>
+        <v>668</v>
       </c>
       <c r="F350" t="s">
-        <v>680</v>
+        <v>669</v>
       </c>
       <c r="G350" t="n">
         <v>1</v>
       </c>
       <c r="H350" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I350" t="n">
         <v>3</v>
@@ -12812,16 +12782,16 @@
         <v>350</v>
       </c>
       <c r="E351" t="s">
-        <v>681</v>
+        <v>670</v>
       </c>
       <c r="F351" t="s">
-        <v>682</v>
+        <v>671</v>
       </c>
       <c r="G351" t="n">
         <v>1</v>
       </c>
       <c r="H351" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I351" t="n">
         <v>3</v>
@@ -12841,16 +12811,16 @@
         <v>351</v>
       </c>
       <c r="E352" t="s">
-        <v>683</v>
+        <v>672</v>
       </c>
       <c r="F352" t="s">
-        <v>684</v>
+        <v>673</v>
       </c>
       <c r="G352" t="n">
         <v>1</v>
       </c>
       <c r="H352" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I352" t="n">
         <v>3</v>
@@ -12870,16 +12840,16 @@
         <v>352</v>
       </c>
       <c r="E353" t="s">
-        <v>685</v>
+        <v>674</v>
       </c>
       <c r="F353" t="s">
-        <v>686</v>
+        <v>675</v>
       </c>
       <c r="G353" t="n">
         <v>1</v>
       </c>
       <c r="H353" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I353" t="n">
         <v>3</v>
@@ -12899,16 +12869,16 @@
         <v>353</v>
       </c>
       <c r="E354" t="s">
-        <v>687</v>
+        <v>676</v>
       </c>
       <c r="F354" t="s">
-        <v>688</v>
+        <v>677</v>
       </c>
       <c r="G354" t="n">
         <v>1</v>
       </c>
       <c r="H354" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I354" t="n">
         <v>3</v>
@@ -12928,16 +12898,16 @@
         <v>354</v>
       </c>
       <c r="E355" t="s">
-        <v>689</v>
+        <v>678</v>
       </c>
       <c r="F355" t="s">
-        <v>690</v>
+        <v>679</v>
       </c>
       <c r="G355" t="n">
         <v>1</v>
       </c>
       <c r="H355" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I355" t="n">
         <v>3</v>
@@ -12957,16 +12927,16 @@
         <v>355</v>
       </c>
       <c r="E356" t="s">
-        <v>691</v>
+        <v>680</v>
       </c>
       <c r="F356" t="s">
-        <v>692</v>
+        <v>681</v>
       </c>
       <c r="G356" t="n">
         <v>1</v>
       </c>
       <c r="H356" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I356" t="n">
         <v>3</v>
@@ -12986,16 +12956,16 @@
         <v>356</v>
       </c>
       <c r="E357" t="s">
-        <v>693</v>
+        <v>682</v>
       </c>
       <c r="F357" t="s">
-        <v>694</v>
+        <v>683</v>
       </c>
       <c r="G357" t="n">
         <v>1</v>
       </c>
       <c r="H357" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I357" t="n">
         <v>3</v>
@@ -13015,16 +12985,16 @@
         <v>357</v>
       </c>
       <c r="E358" t="s">
-        <v>695</v>
+        <v>684</v>
       </c>
       <c r="F358" t="s">
-        <v>696</v>
+        <v>685</v>
       </c>
       <c r="G358" t="n">
         <v>1</v>
       </c>
       <c r="H358" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I358" t="n">
         <v>3</v>
@@ -13044,16 +13014,16 @@
         <v>358</v>
       </c>
       <c r="E359" t="s">
-        <v>697</v>
+        <v>686</v>
       </c>
       <c r="F359" t="s">
-        <v>698</v>
+        <v>687</v>
       </c>
       <c r="G359" t="n">
         <v>1</v>
       </c>
       <c r="H359" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I359" t="n">
         <v>3</v>
@@ -13073,16 +13043,16 @@
         <v>359</v>
       </c>
       <c r="E360" t="s">
-        <v>699</v>
+        <v>688</v>
       </c>
       <c r="F360" t="s">
-        <v>700</v>
+        <v>689</v>
       </c>
       <c r="G360" t="n">
         <v>1</v>
       </c>
       <c r="H360" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I360" t="n">
         <v>3</v>
@@ -13102,16 +13072,16 @@
         <v>360</v>
       </c>
       <c r="E361" t="s">
-        <v>701</v>
+        <v>690</v>
       </c>
       <c r="F361" t="s">
-        <v>702</v>
+        <v>691</v>
       </c>
       <c r="G361" t="n">
         <v>1</v>
       </c>
       <c r="H361" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I361" t="n">
         <v>3</v>
@@ -13131,16 +13101,16 @@
         <v>361</v>
       </c>
       <c r="E362" t="s">
-        <v>703</v>
+        <v>692</v>
       </c>
       <c r="F362" t="s">
-        <v>704</v>
+        <v>693</v>
       </c>
       <c r="G362" t="n">
         <v>1</v>
       </c>
       <c r="H362" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I362" t="n">
         <v>3</v>
@@ -13160,16 +13130,16 @@
         <v>362</v>
       </c>
       <c r="E363" t="s">
-        <v>705</v>
+        <v>694</v>
       </c>
       <c r="F363" t="s">
-        <v>706</v>
+        <v>695</v>
       </c>
       <c r="G363" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H363" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I363" t="n">
         <v>3</v>
@@ -13189,16 +13159,16 @@
         <v>363</v>
       </c>
       <c r="E364" t="s">
-        <v>707</v>
+        <v>696</v>
       </c>
       <c r="F364" t="s">
-        <v>708</v>
+        <v>697</v>
       </c>
       <c r="G364" t="n">
         <v>1</v>
       </c>
       <c r="H364" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I364" t="n">
         <v>3</v>
@@ -13218,16 +13188,16 @@
         <v>364</v>
       </c>
       <c r="E365" t="s">
-        <v>709</v>
+        <v>698</v>
       </c>
       <c r="F365" t="s">
-        <v>710</v>
+        <v>699</v>
       </c>
       <c r="G365" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H365" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I365" t="n">
         <v>3</v>
@@ -13247,16 +13217,16 @@
         <v>365</v>
       </c>
       <c r="E366" t="s">
-        <v>711</v>
+        <v>700</v>
       </c>
       <c r="F366" t="s">
-        <v>712</v>
+        <v>701</v>
       </c>
       <c r="G366" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H366" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I366" t="n">
         <v>3</v>
@@ -13276,16 +13246,16 @@
         <v>366</v>
       </c>
       <c r="E367" t="s">
-        <v>713</v>
+        <v>702</v>
       </c>
       <c r="F367" t="s">
-        <v>714</v>
+        <v>703</v>
       </c>
       <c r="G367" t="n">
         <v>1</v>
       </c>
       <c r="H367" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I367" t="n">
         <v>3</v>
@@ -13305,16 +13275,16 @@
         <v>367</v>
       </c>
       <c r="E368" t="s">
-        <v>715</v>
+        <v>704</v>
       </c>
       <c r="F368" t="s">
-        <v>716</v>
+        <v>705</v>
       </c>
       <c r="G368" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H368" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I368" t="n">
         <v>3</v>
@@ -13334,16 +13304,16 @@
         <v>368</v>
       </c>
       <c r="E369" t="s">
-        <v>717</v>
+        <v>706</v>
       </c>
       <c r="F369" t="s">
-        <v>718</v>
+        <v>707</v>
       </c>
       <c r="G369" t="n">
         <v>1</v>
       </c>
       <c r="H369" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I369" t="n">
         <v>3</v>
@@ -13363,16 +13333,16 @@
         <v>369</v>
       </c>
       <c r="E370" t="s">
-        <v>719</v>
+        <v>708</v>
       </c>
       <c r="F370" t="s">
-        <v>720</v>
+        <v>709</v>
       </c>
       <c r="G370" t="n">
         <v>1</v>
       </c>
       <c r="H370" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I370" t="n">
         <v>3</v>
@@ -13392,16 +13362,16 @@
         <v>370</v>
       </c>
       <c r="E371" t="s">
-        <v>721</v>
+        <v>710</v>
       </c>
       <c r="F371" t="s">
-        <v>722</v>
+        <v>711</v>
       </c>
       <c r="G371" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H371" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I371" t="n">
         <v>3</v>
@@ -13421,16 +13391,16 @@
         <v>371</v>
       </c>
       <c r="E372" t="s">
-        <v>723</v>
+        <v>712</v>
       </c>
       <c r="F372" t="s">
-        <v>724</v>
+        <v>713</v>
       </c>
       <c r="G372" t="n">
         <v>1</v>
       </c>
       <c r="H372" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I372" t="n">
         <v>3</v>
@@ -13450,16 +13420,16 @@
         <v>372</v>
       </c>
       <c r="E373" t="s">
-        <v>725</v>
+        <v>714</v>
       </c>
       <c r="F373" t="s">
-        <v>726</v>
+        <v>715</v>
       </c>
       <c r="G373" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H373" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I373" t="n">
         <v>3</v>
@@ -13479,16 +13449,16 @@
         <v>373</v>
       </c>
       <c r="E374" t="s">
-        <v>727</v>
+        <v>716</v>
       </c>
       <c r="F374" t="s">
-        <v>728</v>
+        <v>717</v>
       </c>
       <c r="G374" t="n">
         <v>1</v>
       </c>
       <c r="H374" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I374" t="n">
         <v>3</v>
@@ -13508,16 +13478,16 @@
         <v>374</v>
       </c>
       <c r="E375" t="s">
-        <v>729</v>
+        <v>718</v>
       </c>
       <c r="F375" t="s">
-        <v>730</v>
+        <v>719</v>
       </c>
       <c r="G375" t="n">
         <v>1</v>
       </c>
       <c r="H375" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I375" t="n">
         <v>3</v>
@@ -13537,16 +13507,16 @@
         <v>375</v>
       </c>
       <c r="E376" t="s">
-        <v>731</v>
+        <v>720</v>
       </c>
       <c r="F376" t="s">
-        <v>732</v>
+        <v>721</v>
       </c>
       <c r="G376" t="n">
         <v>1</v>
       </c>
       <c r="H376" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I376" t="n">
         <v>3</v>
@@ -13566,16 +13536,16 @@
         <v>376</v>
       </c>
       <c r="E377" t="s">
-        <v>733</v>
+        <v>722</v>
       </c>
       <c r="F377" t="s">
-        <v>734</v>
+        <v>723</v>
       </c>
       <c r="G377" t="n">
         <v>1</v>
       </c>
       <c r="H377" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I377" t="n">
         <v>3</v>
@@ -13595,16 +13565,16 @@
         <v>377</v>
       </c>
       <c r="E378" t="s">
-        <v>735</v>
+        <v>724</v>
       </c>
       <c r="F378" t="s">
-        <v>736</v>
+        <v>725</v>
       </c>
       <c r="G378" t="n">
         <v>1</v>
       </c>
       <c r="H378" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I378" t="n">
         <v>3</v>
@@ -13624,16 +13594,16 @@
         <v>378</v>
       </c>
       <c r="E379" t="s">
-        <v>737</v>
+        <v>726</v>
       </c>
       <c r="F379" t="s">
-        <v>738</v>
+        <v>727</v>
       </c>
       <c r="G379" t="n">
         <v>1</v>
       </c>
       <c r="H379" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I379" t="n">
         <v>3</v>
@@ -13653,16 +13623,16 @@
         <v>379</v>
       </c>
       <c r="E380" t="s">
-        <v>739</v>
+        <v>728</v>
       </c>
       <c r="F380" t="s">
-        <v>740</v>
+        <v>729</v>
       </c>
       <c r="G380" t="n">
         <v>1</v>
       </c>
       <c r="H380" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I380" t="n">
         <v>3</v>
@@ -13682,16 +13652,16 @@
         <v>380</v>
       </c>
       <c r="E381" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="F381" t="s">
-        <v>742</v>
+        <v>731</v>
       </c>
       <c r="G381" t="n">
         <v>1</v>
       </c>
       <c r="H381" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I381" t="n">
         <v>3</v>
@@ -13711,16 +13681,16 @@
         <v>381</v>
       </c>
       <c r="E382" t="s">
-        <v>743</v>
+        <v>732</v>
       </c>
       <c r="F382" t="s">
-        <v>744</v>
+        <v>733</v>
       </c>
       <c r="G382" t="n">
         <v>1</v>
       </c>
       <c r="H382" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I382" t="n">
         <v>3</v>
@@ -13740,16 +13710,16 @@
         <v>382</v>
       </c>
       <c r="E383" t="s">
-        <v>745</v>
+        <v>734</v>
       </c>
       <c r="F383" t="s">
-        <v>746</v>
+        <v>735</v>
       </c>
       <c r="G383" t="n">
         <v>1</v>
       </c>
       <c r="H383" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I383" t="n">
         <v>3</v>
@@ -13769,16 +13739,16 @@
         <v>383</v>
       </c>
       <c r="E384" t="s">
-        <v>95</v>
+        <v>736</v>
       </c>
       <c r="F384" t="s">
-        <v>96</v>
+        <v>737</v>
       </c>
       <c r="G384" t="n">
         <v>1</v>
       </c>
       <c r="H384" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I384" t="n">
         <v>3</v>
@@ -13798,16 +13768,16 @@
         <v>384</v>
       </c>
       <c r="E385" t="s">
-        <v>747</v>
+        <v>738</v>
       </c>
       <c r="F385" t="s">
-        <v>748</v>
+        <v>739</v>
       </c>
       <c r="G385" t="n">
         <v>1</v>
       </c>
       <c r="H385" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I385" t="n">
         <v>3</v>
@@ -13827,16 +13797,16 @@
         <v>385</v>
       </c>
       <c r="E386" t="s">
-        <v>749</v>
+        <v>96</v>
       </c>
       <c r="F386" t="s">
-        <v>750</v>
+        <v>97</v>
       </c>
       <c r="G386" t="n">
         <v>1</v>
       </c>
       <c r="H386" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I386" t="n">
         <v>3</v>
@@ -13856,16 +13826,16 @@
         <v>386</v>
       </c>
       <c r="E387" t="s">
-        <v>751</v>
+        <v>740</v>
       </c>
       <c r="F387" t="s">
-        <v>752</v>
+        <v>741</v>
       </c>
       <c r="G387" t="n">
         <v>1</v>
       </c>
       <c r="H387" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I387" t="n">
         <v>3</v>
@@ -13885,16 +13855,16 @@
         <v>387</v>
       </c>
       <c r="E388" t="s">
-        <v>753</v>
+        <v>742</v>
       </c>
       <c r="F388" t="s">
-        <v>754</v>
+        <v>743</v>
       </c>
       <c r="G388" t="n">
         <v>1</v>
       </c>
       <c r="H388" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I388" t="n">
         <v>3</v>
@@ -13914,16 +13884,16 @@
         <v>388</v>
       </c>
       <c r="E389" t="s">
-        <v>755</v>
+        <v>744</v>
       </c>
       <c r="F389" t="s">
-        <v>756</v>
+        <v>745</v>
       </c>
       <c r="G389" t="n">
         <v>1</v>
       </c>
       <c r="H389" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I389" t="n">
         <v>3</v>
@@ -13943,16 +13913,16 @@
         <v>389</v>
       </c>
       <c r="E390" t="s">
-        <v>757</v>
+        <v>746</v>
       </c>
       <c r="F390" t="s">
-        <v>758</v>
+        <v>747</v>
       </c>
       <c r="G390" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H390" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I390" t="n">
         <v>3</v>
@@ -13972,16 +13942,16 @@
         <v>390</v>
       </c>
       <c r="E391" t="s">
-        <v>757</v>
+        <v>748</v>
       </c>
       <c r="F391" t="s">
-        <v>759</v>
+        <v>749</v>
       </c>
       <c r="G391" t="n">
         <v>1</v>
       </c>
       <c r="H391" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I391" t="n">
         <v>3</v>
